--- a/assets/asmac/journal_mep.xlsx
+++ b/assets/asmac/journal_mep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="9870"/>
+    <workbookView windowWidth="21885" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -97,21 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -121,16 +106,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,18 +128,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,30 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -212,7 +183,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +206,28 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,37 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -568,21 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -591,156 +600,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -750,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -775,11 +775,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,9 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1152,16 +1155,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.8733333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3733333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="F1" s="4">
         <v>14</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>15</v>
       </c>
       <c r="H1" s="4">
@@ -1189,241 +1192,248 @@
       <c r="I1" s="4">
         <v>17</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5">
-        <v>44760</v>
+        <v>44914</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7">
-        <v>495</v>
+        <v>3220</v>
       </c>
       <c r="D2" s="7">
-        <v>527</v>
+        <v>3320</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5">
-        <v>44760</v>
+        <v>44914</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7">
-        <v>21</v>
+        <v>940</v>
       </c>
       <c r="D3" s="7">
-        <v>26</v>
+        <v>920</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:10">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5">
-        <v>44760</v>
+        <v>44914</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="D4" s="7">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10">
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5">
-        <v>44760</v>
+        <v>44914</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>1200</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10">
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5">
-        <v>44761</v>
+        <v>44915</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="7">
+        <v>4080</v>
+      </c>
       <c r="F6" s="7">
-        <v>560</v>
-      </c>
-      <c r="G6" s="7">
-        <v>632</v>
-      </c>
-      <c r="H6" s="7">
-        <v>584</v>
-      </c>
+        <v>4420</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:10">
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5">
-        <v>44761</v>
+        <v>44915</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7">
+        <v>1200</v>
+      </c>
       <c r="F7" s="7">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7">
-        <v>47</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:10">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5">
-        <v>44761</v>
+        <v>44915</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7">
+        <v>760</v>
+      </c>
       <c r="F8" s="7">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7">
-        <v>39</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="5">
-        <v>44761</v>
+        <v>44915</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7">
+        <v>520</v>
+      </c>
+      <c r="F9" s="7">
+        <v>400</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="5">
-        <v>44762</v>
+        <v>44916</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="E10" s="7">
-        <v>605</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="7">
+        <v>4340</v>
+      </c>
       <c r="H10" s="7">
-        <v>698</v>
+        <v>4600</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="7">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="5">
-        <v>44762</v>
+        <v>44916</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="E11" s="11">
-        <v>69</v>
-      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7">
+        <v>1440</v>
+      </c>
       <c r="H11" s="7">
-        <v>68</v>
+        <v>1400</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:10">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="5">
-        <v>44762</v>
+        <v>44916</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="E12" s="7">
-        <v>31</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="7">
+        <v>820</v>
+      </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>640</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:10">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="5">
-        <v>44762</v>
+        <v>44916</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <v>800</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10">
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="5">
-        <v>44763</v>
+        <v>44917</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>2</v>
@@ -1432,14 +1442,14 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10">
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="5">
-        <v>44763</v>
+        <v>44917</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>3</v>
@@ -1448,14 +1458,14 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:10">
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="5">
-        <v>44763</v>
+        <v>44917</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>4</v>
@@ -1464,14 +1474,14 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:10">
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="5">
-        <v>44763</v>
+        <v>44917</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>5</v>
@@ -1480,15 +1490,13 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:10">
-      <c r="A18" s="5">
-        <v>44764</v>
-      </c>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="5"/>
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -1496,15 +1504,13 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:10">
-      <c r="A19" s="5">
-        <v>44764</v>
-      </c>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1512,15 +1518,13 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:10">
-      <c r="A20" s="5">
-        <v>44764</v>
-      </c>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="5"/>
       <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1528,15 +1532,13 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:10">
-      <c r="A21" s="5">
-        <v>44764</v>
-      </c>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="5"/>
       <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1544,15 +1546,13 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10">
-      <c r="A22" s="5">
-        <v>44765</v>
-      </c>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1560,15 +1560,13 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:10">
-      <c r="A23" s="5">
-        <v>44765</v>
-      </c>
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
@@ -1576,15 +1574,13 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:10">
-      <c r="A24" s="5">
-        <v>44765</v>
-      </c>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="5"/>
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -1592,15 +1588,13 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:10">
-      <c r="A25" s="5">
-        <v>44765</v>
-      </c>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
@@ -1608,75 +1602,55 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="5">
-        <v>44766</v>
-      </c>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="5"/>
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="7">
-        <v>344</v>
-      </c>
-      <c r="D26" s="7">
-        <v>340</v>
-      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="5">
-        <v>44766</v>
-      </c>
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="5"/>
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="7">
-        <v>52</v>
-      </c>
-      <c r="D27" s="7">
-        <v>60</v>
-      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="5">
-        <v>44766</v>
-      </c>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="5"/>
       <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7">
-        <v>30</v>
-      </c>
-      <c r="D28" s="7">
-        <v>21</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="5">
-        <v>44766</v>
-      </c>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="5"/>
       <c r="B29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1684,75 +1658,55 @@
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:10">
-      <c r="A30" s="5">
-        <v>44767</v>
-      </c>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="5"/>
       <c r="B30" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="7">
-        <v>235</v>
-      </c>
-      <c r="F30" s="7">
-        <v>305</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="5">
-        <v>44767</v>
-      </c>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="5"/>
       <c r="B31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7">
-        <v>22</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:10">
-      <c r="A32" s="5">
-        <v>44767</v>
-      </c>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="5"/>
       <c r="B32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="7">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7">
-        <v>20</v>
-      </c>
-      <c r="G32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:10">
-      <c r="A33" s="5">
-        <v>44767</v>
-      </c>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="5"/>
       <c r="B33" s="9" t="s">
         <v>5</v>
       </c>
@@ -1760,15 +1714,13 @@
       <c r="D33" s="9"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:10">
-      <c r="A34" s="5">
-        <v>44768</v>
-      </c>
+    <row r="34" customHeight="1" spans="1:10">
+      <c r="A34" s="5"/>
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1776,19 +1728,13 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="7">
-        <v>414</v>
-      </c>
-      <c r="H34" s="7">
-        <v>270</v>
-      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:10">
-      <c r="A35" s="5">
-        <v>44768</v>
-      </c>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="5"/>
       <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
@@ -1796,19 +1742,13 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="7">
-        <v>16</v>
-      </c>
-      <c r="H35" s="7">
-        <v>21</v>
-      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:10">
-      <c r="A36" s="5">
-        <v>44768</v>
-      </c>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="5"/>
       <c r="B36" s="9" t="s">
         <v>4</v>
       </c>
@@ -1816,19 +1756,13 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="7">
-        <v>21</v>
-      </c>
-      <c r="H36" s="7">
-        <v>10</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:10">
-      <c r="A37" s="5">
-        <v>44768</v>
-      </c>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="5"/>
       <c r="B37" s="9" t="s">
         <v>5</v>
       </c>
@@ -1841,10 +1775,8 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:10">
-      <c r="A38" s="5">
-        <v>44769</v>
-      </c>
+    <row r="38" customHeight="1" spans="1:10">
+      <c r="A38" s="5"/>
       <c r="B38" s="9" t="s">
         <v>2</v>
       </c>
@@ -1852,19 +1784,13 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="7">
-        <v>573</v>
-      </c>
-      <c r="J38" s="7">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:10">
-      <c r="A39" s="5">
-        <v>44769</v>
-      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:10">
+      <c r="A39" s="5"/>
       <c r="B39" s="9" t="s">
         <v>3</v>
       </c>
@@ -1872,19 +1798,13 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="7">
-        <v>62</v>
-      </c>
-      <c r="J39" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:10">
-      <c r="A40" s="5">
-        <v>44769</v>
-      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="5"/>
       <c r="B40" s="9" t="s">
         <v>4</v>
       </c>
@@ -1892,19 +1812,13 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="7">
-        <v>37</v>
-      </c>
-      <c r="J40" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="1:10">
-      <c r="A41" s="5">
-        <v>44769</v>
-      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="5"/>
       <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
@@ -1912,15 +1826,13 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:10">
-      <c r="A42" s="5">
-        <v>44770</v>
-      </c>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="5"/>
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -1928,15 +1840,13 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:10">
-      <c r="A43" s="5">
-        <v>44770</v>
-      </c>
+    <row r="43" customHeight="1" spans="1:10">
+      <c r="A43" s="5"/>
       <c r="B43" s="9" t="s">
         <v>3</v>
       </c>
@@ -1944,15 +1854,13 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:10">
-      <c r="A44" s="5">
-        <v>44770</v>
-      </c>
+    <row r="44" customHeight="1" spans="1:10">
+      <c r="A44" s="5"/>
       <c r="B44" s="9" t="s">
         <v>4</v>
       </c>
@@ -1960,15 +1868,13 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:10">
-      <c r="A45" s="5">
-        <v>44770</v>
-      </c>
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="5"/>
       <c r="B45" s="9" t="s">
         <v>5</v>
       </c>
@@ -1976,15 +1882,13 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:10">
-      <c r="A46" s="5">
-        <v>44771</v>
-      </c>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="5"/>
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
@@ -1992,15 +1896,13 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:10">
-      <c r="A47" s="5">
-        <v>44771</v>
-      </c>
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="5"/>
       <c r="B47" s="9" t="s">
         <v>3</v>
       </c>
@@ -2008,15 +1910,13 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:10">
-      <c r="A48" s="5">
-        <v>44771</v>
-      </c>
+    <row r="48" customHeight="1" spans="1:10">
+      <c r="A48" s="5"/>
       <c r="B48" s="9" t="s">
         <v>4</v>
       </c>
@@ -2024,15 +1924,13 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" ht="15" customHeight="1" spans="1:10">
-      <c r="A49" s="5">
-        <v>44771</v>
-      </c>
+    <row r="49" customHeight="1" spans="1:10">
+      <c r="A49" s="5"/>
       <c r="B49" s="9" t="s">
         <v>5</v>
       </c>
@@ -2040,15 +1938,13 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:10">
-      <c r="A50" s="5">
-        <v>44772</v>
-      </c>
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="5"/>
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -2056,15 +1952,13 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:10">
-      <c r="A51" s="5">
-        <v>44772</v>
-      </c>
+    <row r="51" customHeight="1" spans="1:10">
+      <c r="A51" s="5"/>
       <c r="B51" s="9" t="s">
         <v>3</v>
       </c>
@@ -2072,15 +1966,13 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:10">
-      <c r="A52" s="5">
-        <v>44772</v>
-      </c>
+    <row r="52" customHeight="1" spans="1:10">
+      <c r="A52" s="5"/>
       <c r="B52" s="9" t="s">
         <v>4</v>
       </c>
@@ -2088,15 +1980,13 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:10">
-      <c r="A53" s="5">
-        <v>44772</v>
-      </c>
+    <row r="53" customHeight="1" spans="1:10">
+      <c r="A53" s="5"/>
       <c r="B53" s="9" t="s">
         <v>5</v>
       </c>
@@ -2104,15 +1994,13 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:10">
-      <c r="A54" s="5">
-        <v>44773</v>
-      </c>
+    <row r="54" customHeight="1" spans="1:10">
+      <c r="A54" s="5"/>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
@@ -2120,15 +2008,13 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:10">
-      <c r="A55" s="5">
-        <v>44773</v>
-      </c>
+    <row r="55" customHeight="1" spans="1:10">
+      <c r="A55" s="5"/>
       <c r="B55" s="9" t="s">
         <v>3</v>
       </c>
@@ -2136,15 +2022,13 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:10">
-      <c r="A56" s="5">
-        <v>44773</v>
-      </c>
+    <row r="56" customHeight="1" spans="1:10">
+      <c r="A56" s="5"/>
       <c r="B56" s="9" t="s">
         <v>4</v>
       </c>
@@ -2152,15 +2036,13 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:10">
-      <c r="A57" s="5">
-        <v>44773</v>
-      </c>
+    <row r="57" customHeight="1" spans="1:10">
+      <c r="A57" s="5"/>
       <c r="B57" s="9" t="s">
         <v>5</v>
       </c>
@@ -2168,168 +2050,124 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:10">
-      <c r="A58" s="5">
-        <v>44774</v>
-      </c>
+    <row r="58" customHeight="1" spans="1:10">
+      <c r="A58" s="5"/>
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="10">
-        <v>306</v>
-      </c>
-      <c r="D58" s="10">
-        <v>365</v>
-      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:10">
-      <c r="A59" s="5">
-        <v>44774</v>
-      </c>
+    <row r="59" customHeight="1" spans="1:10">
+      <c r="A59" s="5"/>
       <c r="B59" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="10">
-        <v>28</v>
-      </c>
-      <c r="D59" s="10">
-        <v>42</v>
-      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:10">
-      <c r="A60" s="5">
-        <v>44774</v>
-      </c>
+    <row r="60" customHeight="1" spans="1:10">
+      <c r="A60" s="5"/>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="10">
-        <v>4</v>
-      </c>
-      <c r="D60" s="10">
-        <v>7</v>
-      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:10">
-      <c r="A61" s="5">
-        <v>44774</v>
-      </c>
+    <row r="61" customHeight="1" spans="1:10">
+      <c r="A61" s="5"/>
       <c r="B61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:10">
-      <c r="A62" s="5">
-        <v>44775</v>
-      </c>
+    <row r="62" customHeight="1" spans="1:10">
+      <c r="A62" s="5"/>
       <c r="B62" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="10">
-        <v>353</v>
-      </c>
-      <c r="F62" s="10">
-        <v>309</v>
-      </c>
-      <c r="G62" s="9"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="1:10">
-      <c r="A63" s="5">
-        <v>44775</v>
-      </c>
+    <row r="63" customHeight="1" spans="1:10">
+      <c r="A63" s="5"/>
       <c r="B63" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="10">
-        <v>21</v>
-      </c>
-      <c r="F63" s="10">
-        <v>12</v>
-      </c>
-      <c r="G63" s="9"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:10">
-      <c r="A64" s="5">
-        <v>44775</v>
-      </c>
+    <row r="64" customHeight="1" spans="1:10">
+      <c r="A64" s="5"/>
       <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="10">
-        <v>7</v>
-      </c>
-      <c r="F64" s="10">
-        <v>5</v>
-      </c>
-      <c r="G64" s="9"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:10">
-      <c r="A65" s="5">
-        <v>44775</v>
-      </c>
+    <row r="65" customHeight="1" spans="1:10">
+      <c r="A65" s="5"/>
       <c r="B65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
-        <v>2</v>
-      </c>
-      <c r="G65" s="9"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:10">
-      <c r="A66" s="5">
-        <v>44776</v>
-      </c>
+    <row r="66" customHeight="1" spans="1:10">
+      <c r="A66" s="5"/>
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -2337,19 +2175,13 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="10">
-        <v>409</v>
-      </c>
-      <c r="H66" s="10">
-        <v>357</v>
-      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:10">
-      <c r="A67" s="5">
-        <v>44776</v>
-      </c>
+    <row r="67" customHeight="1" spans="1:10">
+      <c r="A67" s="5"/>
       <c r="B67" s="9" t="s">
         <v>3</v>
       </c>
@@ -2357,19 +2189,13 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="10">
-        <v>14</v>
-      </c>
-      <c r="H67" s="10">
-        <v>5</v>
-      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:10">
-      <c r="A68" s="5">
-        <v>44776</v>
-      </c>
+    <row r="68" customHeight="1" spans="1:10">
+      <c r="A68" s="5"/>
       <c r="B68" s="9" t="s">
         <v>4</v>
       </c>
@@ -2377,19 +2203,13 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="10">
-        <v>7</v>
-      </c>
-      <c r="H68" s="10">
-        <v>4</v>
-      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:10">
-      <c r="A69" s="5">
-        <v>44776</v>
-      </c>
+    <row r="69" customHeight="1" spans="1:10">
+      <c r="A69" s="5"/>
       <c r="B69" s="9" t="s">
         <v>5</v>
       </c>
@@ -2397,15 +2217,13 @@
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:10">
-      <c r="A70" s="5">
-        <v>44777</v>
-      </c>
+    <row r="70" customHeight="1" spans="1:10">
+      <c r="A70" s="5"/>
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
@@ -2413,19 +2231,13 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="10">
-        <v>449</v>
-      </c>
-      <c r="J70" s="10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:10">
-      <c r="A71" s="5">
-        <v>44777</v>
-      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
+      <c r="A71" s="5"/>
       <c r="B71" s="9" t="s">
         <v>3</v>
       </c>
@@ -2433,19 +2245,13 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="10">
-        <v>19</v>
-      </c>
-      <c r="J71" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:10">
-      <c r="A72" s="5">
-        <v>44777</v>
-      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
+      <c r="A72" s="5"/>
       <c r="B72" s="9" t="s">
         <v>4</v>
       </c>
@@ -2455,17 +2261,11 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="10">
-        <v>27</v>
-      </c>
-      <c r="J72" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:10">
-      <c r="A73" s="5">
-        <v>44777</v>
-      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
+      <c r="A73" s="5"/>
       <c r="B73" s="9" t="s">
         <v>5</v>
       </c>
@@ -2475,13 +2275,11 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:10">
-      <c r="A74" s="5">
-        <v>44778</v>
-      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
+      <c r="A74" s="5"/>
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -2494,10 +2292,8 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:10">
-      <c r="A75" s="5">
-        <v>44778</v>
-      </c>
+    <row r="75" customHeight="1" spans="1:10">
+      <c r="A75" s="5"/>
       <c r="B75" s="9" t="s">
         <v>3</v>
       </c>
@@ -2510,10 +2306,8 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:10">
-      <c r="A76" s="5">
-        <v>44778</v>
-      </c>
+    <row r="76" customHeight="1" spans="1:10">
+      <c r="A76" s="5"/>
       <c r="B76" s="9" t="s">
         <v>4</v>
       </c>
@@ -2526,10 +2320,8 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:10">
-      <c r="A77" s="5">
-        <v>44778</v>
-      </c>
+    <row r="77" customHeight="1" spans="1:10">
+      <c r="A77" s="5"/>
       <c r="B77" s="9" t="s">
         <v>5</v>
       </c>
@@ -2542,10 +2334,8 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:10">
-      <c r="A78" s="5">
-        <v>44779</v>
-      </c>
+    <row r="78" customHeight="1" spans="1:10">
+      <c r="A78" s="5"/>
       <c r="B78" s="9" t="s">
         <v>2</v>
       </c>
@@ -2558,10 +2348,8 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:10">
-      <c r="A79" s="5">
-        <v>44779</v>
-      </c>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="5"/>
       <c r="B79" s="9" t="s">
         <v>3</v>
       </c>
@@ -2574,10 +2362,8 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:10">
-      <c r="A80" s="5">
-        <v>44779</v>
-      </c>
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="5"/>
       <c r="B80" s="9" t="s">
         <v>4</v>
       </c>
@@ -2590,10 +2376,8 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:10">
-      <c r="A81" s="5">
-        <v>44779</v>
-      </c>
+    <row r="81" customHeight="1" spans="1:10">
+      <c r="A81" s="5"/>
       <c r="B81" s="9" t="s">
         <v>5</v>
       </c>
@@ -2606,10 +2390,8 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:10">
-      <c r="A82" s="5">
-        <v>44780</v>
-      </c>
+    <row r="82" customHeight="1" spans="1:10">
+      <c r="A82" s="5"/>
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -2622,10 +2404,8 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:10">
-      <c r="A83" s="5">
-        <v>44780</v>
-      </c>
+    <row r="83" customHeight="1" spans="1:10">
+      <c r="A83" s="5"/>
       <c r="B83" s="9" t="s">
         <v>3</v>
       </c>
@@ -2638,10 +2418,8 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:10">
-      <c r="A84" s="5">
-        <v>44780</v>
-      </c>
+    <row r="84" customHeight="1" spans="1:10">
+      <c r="A84" s="5"/>
       <c r="B84" s="9" t="s">
         <v>4</v>
       </c>
@@ -2654,10 +2432,8 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:10">
-      <c r="A85" s="5">
-        <v>44780</v>
-      </c>
+    <row r="85" customHeight="1" spans="1:10">
+      <c r="A85" s="5"/>
       <c r="B85" s="9" t="s">
         <v>5</v>
       </c>
@@ -2670,19 +2446,13 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:10">
-      <c r="A86" s="5">
-        <v>44781</v>
-      </c>
+    <row r="86" customHeight="1" spans="1:10">
+      <c r="A86" s="5"/>
       <c r="B86" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="10">
-        <v>312</v>
-      </c>
-      <c r="D86" s="10">
-        <v>326</v>
-      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2690,19 +2460,13 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:10">
-      <c r="A87" s="5">
-        <v>44781</v>
-      </c>
+    <row r="87" customHeight="1" spans="1:10">
+      <c r="A87" s="5"/>
       <c r="B87" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="10">
-        <v>4</v>
-      </c>
-      <c r="D87" s="10">
-        <v>15</v>
-      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -2710,19 +2474,13 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:10">
-      <c r="A88" s="5">
-        <v>44781</v>
-      </c>
+    <row r="88" customHeight="1" spans="1:10">
+      <c r="A88" s="5"/>
       <c r="B88" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="10">
-        <v>10</v>
-      </c>
-      <c r="D88" s="10">
-        <v>20</v>
-      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2730,15 +2488,13 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:10">
-      <c r="A89" s="5">
-        <v>44781</v>
-      </c>
+    <row r="89" customHeight="1" spans="1:10">
+      <c r="A89" s="5"/>
       <c r="B89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -2746,88 +2502,64 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:10">
-      <c r="A90" s="5">
-        <v>44782</v>
-      </c>
+    <row r="90" customHeight="1" spans="1:10">
+      <c r="A90" s="5"/>
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="10">
-        <v>351</v>
-      </c>
-      <c r="F90" s="10">
-        <v>279</v>
-      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" ht="15" customHeight="1" spans="1:10">
-      <c r="A91" s="5">
-        <v>44782</v>
-      </c>
+    <row r="91" customHeight="1" spans="1:10">
+      <c r="A91" s="5"/>
       <c r="B91" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="10">
-        <v>6</v>
-      </c>
-      <c r="F91" s="10">
-        <v>9</v>
-      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:10">
-      <c r="A92" s="5">
-        <v>44782</v>
-      </c>
+    <row r="92" customHeight="1" spans="1:10">
+      <c r="A92" s="5"/>
       <c r="B92" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="10">
-        <v>26</v>
-      </c>
-      <c r="F92" s="10">
-        <v>28</v>
-      </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" ht="15" customHeight="1" spans="1:10">
-      <c r="A93" s="5">
-        <v>44782</v>
-      </c>
+    <row r="93" customHeight="1" spans="1:10">
+      <c r="A93" s="5"/>
       <c r="B93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10">
-        <v>1</v>
-      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" ht="15" customHeight="1" spans="1:10">
-      <c r="A94" s="5">
-        <v>44783</v>
-      </c>
+    <row r="94" customHeight="1" spans="1:10">
+      <c r="A94" s="5"/>
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
@@ -2835,19 +2567,13 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="10">
-        <v>394</v>
-      </c>
-      <c r="H94" s="10">
-        <v>375</v>
-      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:10">
-      <c r="A95" s="5">
-        <v>44783</v>
-      </c>
+    <row r="95" customHeight="1" spans="1:10">
+      <c r="A95" s="5"/>
       <c r="B95" s="9" t="s">
         <v>3</v>
       </c>
@@ -2855,19 +2581,13 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="10">
-        <v>5</v>
-      </c>
-      <c r="H95" s="10">
-        <v>6</v>
-      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" ht="15" customHeight="1" spans="1:10">
-      <c r="A96" s="5">
-        <v>44783</v>
-      </c>
+    <row r="96" customHeight="1" spans="1:10">
+      <c r="A96" s="5"/>
       <c r="B96" s="9" t="s">
         <v>4</v>
       </c>
@@ -2875,19 +2595,13 @@
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="10">
-        <v>12</v>
-      </c>
-      <c r="H96" s="10">
-        <v>9</v>
-      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" ht="15" customHeight="1" spans="1:10">
-      <c r="A97" s="5">
-        <v>44783</v>
-      </c>
+    <row r="97" customHeight="1" spans="1:10">
+      <c r="A97" s="5"/>
       <c r="B97" s="9" t="s">
         <v>5</v>
       </c>
@@ -2895,17 +2609,13 @@
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10">
-        <v>2</v>
-      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" ht="15" customHeight="1" spans="1:10">
-      <c r="A98" s="5">
-        <v>44784</v>
-      </c>
+    <row r="98" customHeight="1" spans="1:10">
+      <c r="A98" s="5"/>
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -2915,17 +2625,11 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="10">
-        <v>335</v>
-      </c>
-      <c r="J98" s="10">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="1:10">
-      <c r="A99" s="5">
-        <v>44784</v>
-      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:10">
+      <c r="A99" s="5"/>
       <c r="B99" s="9" t="s">
         <v>3</v>
       </c>
@@ -2935,17 +2639,11 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="10">
-        <v>2</v>
-      </c>
-      <c r="J99" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="1:10">
-      <c r="A100" s="5">
-        <v>44784</v>
-      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:10">
+      <c r="A100" s="5"/>
       <c r="B100" s="9" t="s">
         <v>4</v>
       </c>
@@ -2955,17 +2653,11 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="10">
-        <v>11</v>
-      </c>
-      <c r="J100" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:10">
-      <c r="A101" s="5">
-        <v>44784</v>
-      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
+      <c r="A101" s="5"/>
       <c r="B101" s="9" t="s">
         <v>5</v>
       </c>
@@ -2975,13 +2667,11 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" spans="1:10">
-      <c r="A102" s="5">
-        <v>44785</v>
-      </c>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
+      <c r="A102" s="5"/>
       <c r="B102" s="9" t="s">
         <v>2</v>
       </c>
@@ -2994,10 +2684,8 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" ht="15" customHeight="1" spans="1:10">
-      <c r="A103" s="5">
-        <v>44785</v>
-      </c>
+    <row r="103" customHeight="1" spans="1:10">
+      <c r="A103" s="5"/>
       <c r="B103" s="9" t="s">
         <v>3</v>
       </c>
@@ -3010,10 +2698,8 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" ht="15" customHeight="1" spans="1:10">
-      <c r="A104" s="5">
-        <v>44785</v>
-      </c>
+    <row r="104" customHeight="1" spans="1:10">
+      <c r="A104" s="5"/>
       <c r="B104" s="9" t="s">
         <v>4</v>
       </c>
@@ -3026,10 +2712,8 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
     </row>
-    <row r="105" ht="15" customHeight="1" spans="1:10">
-      <c r="A105" s="5">
-        <v>44785</v>
-      </c>
+    <row r="105" customHeight="1" spans="1:10">
+      <c r="A105" s="5"/>
       <c r="B105" s="9" t="s">
         <v>5</v>
       </c>
@@ -3042,10 +2726,8 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
     </row>
-    <row r="106" ht="15" customHeight="1" spans="1:10">
-      <c r="A106" s="5">
-        <v>44786</v>
-      </c>
+    <row r="106" customHeight="1" spans="1:10">
+      <c r="A106" s="5"/>
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -3058,10 +2740,8 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" ht="15" customHeight="1" spans="1:10">
-      <c r="A107" s="5">
-        <v>44786</v>
-      </c>
+    <row r="107" customHeight="1" spans="1:10">
+      <c r="A107" s="5"/>
       <c r="B107" s="9" t="s">
         <v>3</v>
       </c>
@@ -3074,10 +2754,8 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" ht="15" customHeight="1" spans="1:10">
-      <c r="A108" s="5">
-        <v>44786</v>
-      </c>
+    <row r="108" customHeight="1" spans="1:10">
+      <c r="A108" s="5"/>
       <c r="B108" s="9" t="s">
         <v>4</v>
       </c>
@@ -3090,10 +2768,8 @@
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" ht="15" customHeight="1" spans="1:10">
-      <c r="A109" s="5">
-        <v>44786</v>
-      </c>
+    <row r="109" customHeight="1" spans="1:10">
+      <c r="A109" s="5"/>
       <c r="B109" s="9" t="s">
         <v>5</v>
       </c>
@@ -3106,10 +2782,8 @@
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" ht="15" customHeight="1" spans="1:10">
-      <c r="A110" s="5">
-        <v>44787</v>
-      </c>
+    <row r="110" customHeight="1" spans="1:10">
+      <c r="A110" s="5"/>
       <c r="B110" s="9" t="s">
         <v>2</v>
       </c>
@@ -3122,10 +2796,8 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" ht="15" customHeight="1" spans="1:10">
-      <c r="A111" s="5">
-        <v>44787</v>
-      </c>
+    <row r="111" customHeight="1" spans="1:10">
+      <c r="A111" s="5"/>
       <c r="B111" s="9" t="s">
         <v>3</v>
       </c>
@@ -3138,10 +2810,8 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" ht="15" customHeight="1" spans="1:10">
-      <c r="A112" s="5">
-        <v>44787</v>
-      </c>
+    <row r="112" customHeight="1" spans="1:10">
+      <c r="A112" s="5"/>
       <c r="B112" s="9" t="s">
         <v>4</v>
       </c>
@@ -3154,10 +2824,8 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" ht="15" customHeight="1" spans="1:10">
-      <c r="A113" s="5">
-        <v>44787</v>
-      </c>
+    <row r="113" customHeight="1" spans="1:10">
+      <c r="A113" s="5"/>
       <c r="B113" s="9" t="s">
         <v>5</v>
       </c>
@@ -3170,19 +2838,13 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" ht="15" customHeight="1" spans="1:10">
-      <c r="A114" s="5">
-        <v>44788</v>
-      </c>
+    <row r="114" customHeight="1" spans="1:10">
+      <c r="A114" s="5"/>
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="10">
-        <v>232</v>
-      </c>
-      <c r="D114" s="10">
-        <v>265</v>
-      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -3190,15 +2852,13 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" ht="15" customHeight="1" spans="1:10">
-      <c r="A115" s="5">
-        <v>44788</v>
-      </c>
+    <row r="115" customHeight="1" spans="1:10">
+      <c r="A115" s="5"/>
       <c r="B115" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -3206,19 +2866,13 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" ht="15" customHeight="1" spans="1:10">
-      <c r="A116" s="5">
-        <v>44788</v>
-      </c>
+    <row r="116" customHeight="1" spans="1:10">
+      <c r="A116" s="5"/>
       <c r="B116" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="10">
-        <v>15</v>
-      </c>
-      <c r="D116" s="10">
-        <v>11</v>
-      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -3226,15 +2880,13 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" ht="15" customHeight="1" spans="1:10">
-      <c r="A117" s="5">
-        <v>44788</v>
-      </c>
+    <row r="117" customHeight="1" spans="1:10">
+      <c r="A117" s="5"/>
       <c r="B117" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
@@ -3242,88 +2894,64 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" ht="15" customHeight="1" spans="1:10">
-      <c r="A118" s="5">
-        <v>44789</v>
-      </c>
+    <row r="118" customHeight="1" spans="1:10">
+      <c r="A118" s="5"/>
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="10">
-        <v>249</v>
-      </c>
-      <c r="F118" s="10">
-        <v>226</v>
-      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
     </row>
-    <row r="119" ht="15" customHeight="1" spans="1:10">
-      <c r="A119" s="5">
-        <v>44789</v>
-      </c>
+    <row r="119" customHeight="1" spans="1:10">
+      <c r="A119" s="5"/>
       <c r="B119" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="10">
-        <v>2</v>
-      </c>
-      <c r="F119" s="10">
-        <v>5</v>
-      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
     </row>
-    <row r="120" ht="15" customHeight="1" spans="1:10">
-      <c r="A120" s="5">
-        <v>44789</v>
-      </c>
+    <row r="120" customHeight="1" spans="1:10">
+      <c r="A120" s="5"/>
       <c r="B120" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="10">
-        <v>18</v>
-      </c>
-      <c r="F120" s="10">
-        <v>30</v>
-      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
     </row>
-    <row r="121" ht="15" customHeight="1" spans="1:10">
-      <c r="A121" s="5">
-        <v>44789</v>
-      </c>
+    <row r="121" customHeight="1" spans="1:10">
+      <c r="A121" s="5"/>
       <c r="B121" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10">
-        <v>6</v>
-      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" ht="15" customHeight="1" spans="1:10">
-      <c r="A122" s="5">
-        <v>44790</v>
-      </c>
+    <row r="122" customHeight="1" spans="1:10">
+      <c r="A122" s="5"/>
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -3331,19 +2959,13 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="10">
-        <v>231</v>
-      </c>
-      <c r="H122" s="10">
-        <v>253</v>
-      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" ht="15" customHeight="1" spans="1:10">
-      <c r="A123" s="5">
-        <v>44790</v>
-      </c>
+    <row r="123" customHeight="1" spans="1:10">
+      <c r="A123" s="5"/>
       <c r="B123" s="9" t="s">
         <v>3</v>
       </c>
@@ -3351,17 +2973,13 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="10">
-        <v>1</v>
-      </c>
-      <c r="H123" s="10"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" ht="15" customHeight="1" spans="1:10">
-      <c r="A124" s="5">
-        <v>44790</v>
-      </c>
+    <row r="124" customHeight="1" spans="1:10">
+      <c r="A124" s="5"/>
       <c r="B124" s="9" t="s">
         <v>4</v>
       </c>
@@ -3369,19 +2987,13 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="10">
-        <v>16</v>
-      </c>
-      <c r="H124" s="10">
-        <v>10</v>
-      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" ht="15" customHeight="1" spans="1:10">
-      <c r="A125" s="5">
-        <v>44790</v>
-      </c>
+    <row r="125" customHeight="1" spans="1:10">
+      <c r="A125" s="5"/>
       <c r="B125" s="9" t="s">
         <v>5</v>
       </c>
@@ -3389,17 +3001,13 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10">
-        <v>1</v>
-      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" ht="15" customHeight="1" spans="1:10">
-      <c r="A126" s="5">
-        <v>44791</v>
-      </c>
+    <row r="126" customHeight="1" spans="1:10">
+      <c r="A126" s="5"/>
       <c r="B126" s="9" t="s">
         <v>2</v>
       </c>
@@ -3409,17 +3017,11 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="10">
-        <v>290</v>
-      </c>
-      <c r="J126" s="10">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1" spans="1:10">
-      <c r="A127" s="5">
-        <v>44791</v>
-      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:10">
+      <c r="A127" s="5"/>
       <c r="B127" s="9" t="s">
         <v>3</v>
       </c>
@@ -3429,15 +3031,11 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="10">
-        <v>2</v>
-      </c>
-      <c r="J127" s="10"/>
-    </row>
-    <row r="128" ht="15" customHeight="1" spans="1:10">
-      <c r="A128" s="5">
-        <v>44791</v>
-      </c>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:10">
+      <c r="A128" s="5"/>
       <c r="B128" s="9" t="s">
         <v>4</v>
       </c>
@@ -3447,15 +3045,11 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="10">
-        <v>32</v>
-      </c>
-      <c r="J128" s="10"/>
-    </row>
-    <row r="129" ht="15" customHeight="1" spans="1:10">
-      <c r="A129" s="5">
-        <v>44791</v>
-      </c>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:10">
+      <c r="A129" s="5"/>
       <c r="B129" s="9" t="s">
         <v>5</v>
       </c>
@@ -3465,13 +3059,11 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-    </row>
-    <row r="130" ht="15" customHeight="1" spans="1:10">
-      <c r="A130" s="5">
-        <v>44792</v>
-      </c>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:10">
+      <c r="A130" s="5"/>
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -3484,10 +3076,8 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" ht="15" customHeight="1" spans="1:10">
-      <c r="A131" s="5">
-        <v>44792</v>
-      </c>
+    <row r="131" customHeight="1" spans="1:10">
+      <c r="A131" s="5"/>
       <c r="B131" s="9" t="s">
         <v>3</v>
       </c>
@@ -3500,10 +3090,8 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" ht="15" customHeight="1" spans="1:10">
-      <c r="A132" s="5">
-        <v>44792</v>
-      </c>
+    <row r="132" customHeight="1" spans="1:10">
+      <c r="A132" s="5"/>
       <c r="B132" s="9" t="s">
         <v>4</v>
       </c>
@@ -3516,10 +3104,8 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" ht="15" customHeight="1" spans="1:10">
-      <c r="A133" s="5">
-        <v>44792</v>
-      </c>
+    <row r="133" customHeight="1" spans="1:10">
+      <c r="A133" s="5"/>
       <c r="B133" s="9" t="s">
         <v>5</v>
       </c>
@@ -3532,10 +3118,8 @@
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" ht="15" customHeight="1" spans="1:10">
-      <c r="A134" s="5">
-        <v>44793</v>
-      </c>
+    <row r="134" customHeight="1" spans="1:10">
+      <c r="A134" s="5"/>
       <c r="B134" s="9" t="s">
         <v>2</v>
       </c>
@@ -3548,10 +3132,8 @@
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" ht="15" customHeight="1" spans="1:10">
-      <c r="A135" s="5">
-        <v>44793</v>
-      </c>
+    <row r="135" customHeight="1" spans="1:10">
+      <c r="A135" s="5"/>
       <c r="B135" s="9" t="s">
         <v>3</v>
       </c>
@@ -3564,10 +3146,8 @@
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" ht="15" customHeight="1" spans="1:10">
-      <c r="A136" s="5">
-        <v>44793</v>
-      </c>
+    <row r="136" customHeight="1" spans="1:10">
+      <c r="A136" s="5"/>
       <c r="B136" s="9" t="s">
         <v>4</v>
       </c>
@@ -3580,10 +3160,8 @@
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" ht="15" customHeight="1" spans="1:10">
-      <c r="A137" s="5">
-        <v>44793</v>
-      </c>
+    <row r="137" customHeight="1" spans="1:10">
+      <c r="A137" s="5"/>
       <c r="B137" s="9" t="s">
         <v>5</v>
       </c>
@@ -3596,10 +3174,8 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" ht="15" customHeight="1" spans="1:10">
-      <c r="A138" s="5">
-        <v>44794</v>
-      </c>
+    <row r="138" customHeight="1" spans="1:10">
+      <c r="A138" s="5"/>
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -3612,10 +3188,8 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" ht="15" customHeight="1" spans="1:10">
-      <c r="A139" s="5">
-        <v>44794</v>
-      </c>
+    <row r="139" customHeight="1" spans="1:10">
+      <c r="A139" s="5"/>
       <c r="B139" s="9" t="s">
         <v>3</v>
       </c>
@@ -3628,10 +3202,8 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" ht="15" customHeight="1" spans="1:10">
-      <c r="A140" s="5">
-        <v>44794</v>
-      </c>
+    <row r="140" customHeight="1" spans="1:10">
+      <c r="A140" s="5"/>
       <c r="B140" s="9" t="s">
         <v>4</v>
       </c>
@@ -3644,10 +3216,8 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" ht="15" customHeight="1" spans="1:10">
-      <c r="A141" s="5">
-        <v>44794</v>
-      </c>
+    <row r="141" customHeight="1" spans="1:10">
+      <c r="A141" s="5"/>
       <c r="B141" s="9" t="s">
         <v>5</v>
       </c>
@@ -3660,19 +3230,13 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" ht="15" customHeight="1" spans="1:10">
-      <c r="A142" s="5">
-        <v>44795</v>
-      </c>
+    <row r="142" customHeight="1" spans="1:10">
+      <c r="A142" s="5"/>
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="10">
-        <v>193</v>
-      </c>
-      <c r="D142" s="10">
-        <v>201</v>
-      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
@@ -3680,15 +3244,13 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" ht="15" customHeight="1" spans="1:10">
-      <c r="A143" s="5">
-        <v>44795</v>
-      </c>
+    <row r="143" customHeight="1" spans="1:10">
+      <c r="A143" s="5"/>
       <c r="B143" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -3696,17 +3258,13 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" ht="15" customHeight="1" spans="1:10">
-      <c r="A144" s="5">
-        <v>44795</v>
-      </c>
+    <row r="144" customHeight="1" spans="1:10">
+      <c r="A144" s="5"/>
       <c r="B144" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="10">
-        <v>1</v>
-      </c>
-      <c r="D144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -3714,15 +3272,13 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" ht="15" customHeight="1" spans="1:10">
-      <c r="A145" s="5">
-        <v>44795</v>
-      </c>
+    <row r="145" customHeight="1" spans="1:10">
+      <c r="A145" s="5"/>
       <c r="B145" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -3730,88 +3286,64 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" ht="15" customHeight="1" spans="1:10">
-      <c r="A146" s="5">
-        <v>44796</v>
-      </c>
+    <row r="146" customHeight="1" spans="1:10">
+      <c r="A146" s="5"/>
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="10">
-        <v>239</v>
-      </c>
-      <c r="F146" s="10">
-        <v>189</v>
-      </c>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" ht="15" customHeight="1" spans="1:10">
-      <c r="A147" s="5">
-        <v>44796</v>
-      </c>
+    <row r="147" customHeight="1" spans="1:10">
+      <c r="A147" s="5"/>
       <c r="B147" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="10">
-        <v>3</v>
-      </c>
-      <c r="F147" s="10">
-        <v>1</v>
-      </c>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" ht="15" customHeight="1" spans="1:10">
-      <c r="A148" s="5">
-        <v>44796</v>
-      </c>
+    <row r="148" customHeight="1" spans="1:10">
+      <c r="A148" s="5"/>
       <c r="B148" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="10">
-        <v>54</v>
-      </c>
-      <c r="F148" s="10">
-        <v>3</v>
-      </c>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" ht="15" customHeight="1" spans="1:10">
-      <c r="A149" s="5">
-        <v>44796</v>
-      </c>
+    <row r="149" customHeight="1" spans="1:10">
+      <c r="A149" s="5"/>
       <c r="B149" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10">
-        <v>1</v>
-      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" ht="15" customHeight="1" spans="1:10">
-      <c r="A150" s="5">
-        <v>44797</v>
-      </c>
+    <row r="150" customHeight="1" spans="1:10">
+      <c r="A150" s="5"/>
       <c r="B150" s="9" t="s">
         <v>2</v>
       </c>
@@ -3819,19 +3351,13 @@
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="10">
-        <v>227</v>
-      </c>
-      <c r="H150" s="10">
-        <v>227</v>
-      </c>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" ht="15" customHeight="1" spans="1:10">
-      <c r="A151" s="5">
-        <v>44797</v>
-      </c>
+    <row r="151" customHeight="1" spans="1:10">
+      <c r="A151" s="5"/>
       <c r="B151" s="9" t="s">
         <v>3</v>
       </c>
@@ -3839,19 +3365,13 @@
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="10">
-        <v>1</v>
-      </c>
-      <c r="H151" s="10">
-        <v>1</v>
-      </c>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" ht="15" customHeight="1" spans="1:10">
-      <c r="A152" s="5">
-        <v>44797</v>
-      </c>
+    <row r="152" customHeight="1" spans="1:10">
+      <c r="A152" s="5"/>
       <c r="B152" s="9" t="s">
         <v>4</v>
       </c>
@@ -3859,19 +3379,13 @@
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="10">
-        <v>80</v>
-      </c>
-      <c r="H152" s="10">
-        <v>23</v>
-      </c>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" ht="15" customHeight="1" spans="1:10">
-      <c r="A153" s="5">
-        <v>44797</v>
-      </c>
+    <row r="153" customHeight="1" spans="1:10">
+      <c r="A153" s="5"/>
       <c r="B153" s="9" t="s">
         <v>5</v>
       </c>
@@ -3879,15 +3393,13 @@
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" ht="15" customHeight="1" spans="1:10">
-      <c r="A154" s="5">
-        <v>44798</v>
-      </c>
+    <row r="154" customHeight="1" spans="1:10">
+      <c r="A154" s="5"/>
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -3897,17 +3409,11 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="10">
-        <v>235</v>
-      </c>
-      <c r="J154" s="10">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1" spans="1:10">
-      <c r="A155" s="5">
-        <v>44798</v>
-      </c>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:10">
+      <c r="A155" s="5"/>
       <c r="B155" s="9" t="s">
         <v>3</v>
       </c>
@@ -3917,17 +3423,11 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="10">
-        <v>9</v>
-      </c>
-      <c r="J155" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" ht="15" customHeight="1" spans="1:10">
-      <c r="A156" s="5">
-        <v>44798</v>
-      </c>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:10">
+      <c r="A156" s="5"/>
       <c r="B156" s="9" t="s">
         <v>4</v>
       </c>
@@ -3937,17 +3437,11 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
-      <c r="I156" s="10">
-        <v>116</v>
-      </c>
-      <c r="J156" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="157" ht="15" customHeight="1" spans="1:10">
-      <c r="A157" s="5">
-        <v>44798</v>
-      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:10">
+      <c r="A157" s="5"/>
       <c r="B157" s="9" t="s">
         <v>5</v>
       </c>
@@ -3957,13 +3451,11 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-    </row>
-    <row r="158" ht="15" customHeight="1" spans="1:10">
-      <c r="A158" s="5">
-        <v>44799</v>
-      </c>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:10">
+      <c r="A158" s="5"/>
       <c r="B158" s="9" t="s">
         <v>2</v>
       </c>
@@ -3976,10 +3468,8 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" ht="15" customHeight="1" spans="1:10">
-      <c r="A159" s="5">
-        <v>44799</v>
-      </c>
+    <row r="159" customHeight="1" spans="1:10">
+      <c r="A159" s="5"/>
       <c r="B159" s="9" t="s">
         <v>3</v>
       </c>
@@ -3992,10 +3482,8 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" ht="15" customHeight="1" spans="1:10">
-      <c r="A160" s="5">
-        <v>44799</v>
-      </c>
+    <row r="160" customHeight="1" spans="1:10">
+      <c r="A160" s="5"/>
       <c r="B160" s="9" t="s">
         <v>4</v>
       </c>
@@ -4008,10 +3496,8 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" ht="15" customHeight="1" spans="1:10">
-      <c r="A161" s="5">
-        <v>44799</v>
-      </c>
+    <row r="161" customHeight="1" spans="1:10">
+      <c r="A161" s="5"/>
       <c r="B161" s="9" t="s">
         <v>5</v>
       </c>
@@ -4024,10 +3510,8 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" ht="15" customHeight="1" spans="1:10">
-      <c r="A162" s="5">
-        <v>44800</v>
-      </c>
+    <row r="162" customHeight="1" spans="1:10">
+      <c r="A162" s="5"/>
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -4040,10 +3524,8 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" ht="15" customHeight="1" spans="1:10">
-      <c r="A163" s="5">
-        <v>44800</v>
-      </c>
+    <row r="163" customHeight="1" spans="1:10">
+      <c r="A163" s="5"/>
       <c r="B163" s="9" t="s">
         <v>3</v>
       </c>
@@ -4056,10 +3538,8 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" ht="15" customHeight="1" spans="1:10">
-      <c r="A164" s="5">
-        <v>44800</v>
-      </c>
+    <row r="164" customHeight="1" spans="1:10">
+      <c r="A164" s="5"/>
       <c r="B164" s="9" t="s">
         <v>4</v>
       </c>
@@ -4072,10 +3552,8 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" ht="15" customHeight="1" spans="1:10">
-      <c r="A165" s="5">
-        <v>44800</v>
-      </c>
+    <row r="165" customHeight="1" spans="1:10">
+      <c r="A165" s="5"/>
       <c r="B165" s="9" t="s">
         <v>5</v>
       </c>
@@ -4088,10 +3566,8 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" ht="15" customHeight="1" spans="1:10">
-      <c r="A166" s="5">
-        <v>44801</v>
-      </c>
+    <row r="166" customHeight="1" spans="1:10">
+      <c r="A166" s="5"/>
       <c r="B166" s="9" t="s">
         <v>2</v>
       </c>
@@ -4104,10 +3580,8 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" ht="15" customHeight="1" spans="1:10">
-      <c r="A167" s="5">
-        <v>44801</v>
-      </c>
+    <row r="167" customHeight="1" spans="1:10">
+      <c r="A167" s="5"/>
       <c r="B167" s="9" t="s">
         <v>3</v>
       </c>
@@ -4120,10 +3594,8 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" ht="15" customHeight="1" spans="1:10">
-      <c r="A168" s="5">
-        <v>44801</v>
-      </c>
+    <row r="168" customHeight="1" spans="1:10">
+      <c r="A168" s="5"/>
       <c r="B168" s="9" t="s">
         <v>4</v>
       </c>
@@ -4136,10 +3608,8 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" ht="15" customHeight="1" spans="1:10">
-      <c r="A169" s="5">
-        <v>44801</v>
-      </c>
+    <row r="169" customHeight="1" spans="1:10">
+      <c r="A169" s="5"/>
       <c r="B169" s="9" t="s">
         <v>5</v>
       </c>
@@ -4152,19 +3622,13 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" ht="15" customHeight="1" spans="1:10">
-      <c r="A170" s="5">
-        <v>44802</v>
-      </c>
+    <row r="170" customHeight="1" spans="1:10">
+      <c r="A170" s="5"/>
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="10">
-        <v>201</v>
-      </c>
-      <c r="D170" s="10">
-        <v>218</v>
-      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -4172,19 +3636,13 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" ht="15" customHeight="1" spans="1:10">
-      <c r="A171" s="5">
-        <v>44802</v>
-      </c>
+    <row r="171" customHeight="1" spans="1:10">
+      <c r="A171" s="5"/>
       <c r="B171" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="10">
-        <v>9</v>
-      </c>
-      <c r="D171" s="10">
-        <v>8</v>
-      </c>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
@@ -4192,19 +3650,13 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" ht="15" customHeight="1" spans="1:10">
-      <c r="A172" s="5">
-        <v>44802</v>
-      </c>
+    <row r="172" customHeight="1" spans="1:10">
+      <c r="A172" s="5"/>
       <c r="B172" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C172" s="10">
-        <v>17</v>
-      </c>
-      <c r="D172" s="10">
-        <v>16</v>
-      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
@@ -4212,15 +3664,13 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" ht="15" customHeight="1" spans="1:10">
-      <c r="A173" s="5">
-        <v>44802</v>
-      </c>
+    <row r="173" customHeight="1" spans="1:10">
+      <c r="A173" s="5"/>
       <c r="B173" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -4228,88 +3678,64 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" ht="15" customHeight="1" spans="1:10">
-      <c r="A174" s="5">
-        <v>44803</v>
-      </c>
+    <row r="174" customHeight="1" spans="1:10">
+      <c r="A174" s="5"/>
       <c r="B174" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="10">
-        <v>207</v>
-      </c>
-      <c r="F174" s="10">
-        <v>225</v>
-      </c>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" ht="15" customHeight="1" spans="1:10">
-      <c r="A175" s="5">
-        <v>44803</v>
-      </c>
+    <row r="175" customHeight="1" spans="1:10">
+      <c r="A175" s="5"/>
       <c r="B175" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="10">
-        <v>6</v>
-      </c>
-      <c r="F175" s="10">
-        <v>10</v>
-      </c>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" ht="15" customHeight="1" spans="1:10">
-      <c r="A176" s="5">
-        <v>44803</v>
-      </c>
+    <row r="176" customHeight="1" spans="1:10">
+      <c r="A176" s="5"/>
       <c r="B176" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="10">
-        <v>30</v>
-      </c>
-      <c r="F176" s="10">
-        <v>39</v>
-      </c>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" ht="15" customHeight="1" spans="1:10">
-      <c r="A177" s="5">
-        <v>44803</v>
-      </c>
+    <row r="177" customHeight="1" spans="1:10">
+      <c r="A177" s="5"/>
       <c r="B177" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10">
-        <v>3</v>
-      </c>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
     </row>
-    <row r="178" ht="15" customHeight="1" spans="1:10">
-      <c r="A178" s="5">
-        <v>44804</v>
-      </c>
+    <row r="178" customHeight="1" spans="1:10">
+      <c r="A178" s="5"/>
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -4317,19 +3743,13 @@
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="10">
-        <v>204</v>
-      </c>
-      <c r="H178" s="10">
-        <v>218</v>
-      </c>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" ht="15" customHeight="1" spans="1:10">
-      <c r="A179" s="5">
-        <v>44804</v>
-      </c>
+    <row r="179" customHeight="1" spans="1:10">
+      <c r="A179" s="5"/>
       <c r="B179" s="9" t="s">
         <v>3</v>
       </c>
@@ -4337,19 +3757,13 @@
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="10">
-        <v>7</v>
-      </c>
-      <c r="H179" s="10">
-        <v>7</v>
-      </c>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" ht="15" customHeight="1" spans="1:10">
-      <c r="A180" s="5">
-        <v>44804</v>
-      </c>
+    <row r="180" customHeight="1" spans="1:10">
+      <c r="A180" s="5"/>
       <c r="B180" s="9" t="s">
         <v>4</v>
       </c>
@@ -4357,19 +3771,13 @@
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="10">
-        <v>17</v>
-      </c>
-      <c r="H180" s="10">
-        <v>39</v>
-      </c>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" ht="15" customHeight="1" spans="1:10">
-      <c r="A181" s="5">
-        <v>44804</v>
-      </c>
+    <row r="181" customHeight="1" spans="1:10">
+      <c r="A181" s="5"/>
       <c r="B181" s="9" t="s">
         <v>5</v>
       </c>
@@ -4377,15 +3785,13 @@
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" ht="15" customHeight="1" spans="1:10">
-      <c r="A182" s="5">
-        <v>44805</v>
-      </c>
+    <row r="182" customHeight="1" spans="1:10">
+      <c r="A182" s="5"/>
       <c r="B182" s="9" t="s">
         <v>2</v>
       </c>
@@ -4395,17 +3801,11 @@
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
-      <c r="I182" s="10">
-        <v>245</v>
-      </c>
-      <c r="J182" s="10">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1" spans="1:10">
-      <c r="A183" s="5">
-        <v>44805</v>
-      </c>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:10">
+      <c r="A183" s="5"/>
       <c r="B183" s="9" t="s">
         <v>3</v>
       </c>
@@ -4415,17 +3815,11 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
-      <c r="I183" s="10">
-        <v>1</v>
-      </c>
-      <c r="J183" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1" spans="1:10">
-      <c r="A184" s="5">
-        <v>44805</v>
-      </c>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:10">
+      <c r="A184" s="5"/>
       <c r="B184" s="9" t="s">
         <v>4</v>
       </c>
@@ -4435,17 +3829,11 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
-      <c r="I184" s="10">
-        <v>1</v>
-      </c>
-      <c r="J184" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1" spans="1:10">
-      <c r="A185" s="5">
-        <v>44805</v>
-      </c>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:10">
+      <c r="A185" s="5"/>
       <c r="B185" s="9" t="s">
         <v>5</v>
       </c>
@@ -4455,15 +3843,11 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
-      <c r="I185" s="10">
-        <v>1</v>
-      </c>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" ht="15" customHeight="1" spans="1:10">
-      <c r="A186" s="5">
-        <v>44806</v>
-      </c>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:10">
+      <c r="A186" s="5"/>
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -4476,10 +3860,8 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" ht="15" customHeight="1" spans="1:10">
-      <c r="A187" s="5">
-        <v>44806</v>
-      </c>
+    <row r="187" customHeight="1" spans="1:10">
+      <c r="A187" s="5"/>
       <c r="B187" s="9" t="s">
         <v>3</v>
       </c>
@@ -4492,10 +3874,8 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" ht="15" customHeight="1" spans="1:10">
-      <c r="A188" s="5">
-        <v>44806</v>
-      </c>
+    <row r="188" customHeight="1" spans="1:10">
+      <c r="A188" s="5"/>
       <c r="B188" s="9" t="s">
         <v>4</v>
       </c>
@@ -4508,10 +3888,8 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" ht="15" customHeight="1" spans="1:10">
-      <c r="A189" s="5">
-        <v>44806</v>
-      </c>
+    <row r="189" customHeight="1" spans="1:10">
+      <c r="A189" s="5"/>
       <c r="B189" s="9" t="s">
         <v>5</v>
       </c>
@@ -4524,10 +3902,8 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" ht="15" customHeight="1" spans="1:10">
-      <c r="A190" s="5">
-        <v>44807</v>
-      </c>
+    <row r="190" customHeight="1" spans="1:10">
+      <c r="A190" s="5"/>
       <c r="B190" s="9" t="s">
         <v>2</v>
       </c>
@@ -4540,10 +3916,8 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" ht="15" customHeight="1" spans="1:10">
-      <c r="A191" s="5">
-        <v>44807</v>
-      </c>
+    <row r="191" customHeight="1" spans="1:10">
+      <c r="A191" s="5"/>
       <c r="B191" s="9" t="s">
         <v>3</v>
       </c>
@@ -4556,10 +3930,8 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" ht="15" customHeight="1" spans="1:10">
-      <c r="A192" s="5">
-        <v>44807</v>
-      </c>
+    <row r="192" customHeight="1" spans="1:10">
+      <c r="A192" s="5"/>
       <c r="B192" s="9" t="s">
         <v>4</v>
       </c>
@@ -4572,10 +3944,8 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" ht="15" customHeight="1" spans="1:10">
-      <c r="A193" s="5">
-        <v>44807</v>
-      </c>
+    <row r="193" customHeight="1" spans="1:10">
+      <c r="A193" s="5"/>
       <c r="B193" s="9" t="s">
         <v>5</v>
       </c>
@@ -4588,10 +3958,8 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" ht="15" customHeight="1" spans="1:10">
-      <c r="A194" s="5">
-        <v>44808</v>
-      </c>
+    <row r="194" customHeight="1" spans="1:10">
+      <c r="A194" s="5"/>
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -4604,10 +3972,8 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" ht="15" customHeight="1" spans="1:10">
-      <c r="A195" s="5">
-        <v>44808</v>
-      </c>
+    <row r="195" customHeight="1" spans="1:10">
+      <c r="A195" s="5"/>
       <c r="B195" s="9" t="s">
         <v>3</v>
       </c>
@@ -4620,10 +3986,8 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" ht="15" customHeight="1" spans="1:10">
-      <c r="A196" s="5">
-        <v>44808</v>
-      </c>
+    <row r="196" customHeight="1" spans="1:10">
+      <c r="A196" s="5"/>
       <c r="B196" s="9" t="s">
         <v>4</v>
       </c>
@@ -4636,10 +4000,8 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" ht="15" customHeight="1" spans="1:10">
-      <c r="A197" s="5">
-        <v>44808</v>
-      </c>
+    <row r="197" customHeight="1" spans="1:10">
+      <c r="A197" s="5"/>
       <c r="B197" s="9" t="s">
         <v>5</v>
       </c>
@@ -4652,19 +4014,13 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" ht="15" customHeight="1" spans="1:10">
-      <c r="A198" s="5">
-        <v>44809</v>
-      </c>
+    <row r="198" customHeight="1" spans="1:10">
+      <c r="A198" s="5"/>
       <c r="B198" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C198" s="10">
-        <v>490</v>
-      </c>
-      <c r="D198" s="10">
-        <v>530</v>
-      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
@@ -4672,19 +4028,13 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" ht="15" customHeight="1" spans="1:10">
-      <c r="A199" s="5">
-        <v>44809</v>
-      </c>
+    <row r="199" customHeight="1" spans="1:10">
+      <c r="A199" s="5"/>
       <c r="B199" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="10">
-        <v>5</v>
-      </c>
-      <c r="D199" s="10">
-        <v>30</v>
-      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
@@ -4692,19 +4042,13 @@
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" ht="15" customHeight="1" spans="1:10">
-      <c r="A200" s="5">
-        <v>44809</v>
-      </c>
+    <row r="200" customHeight="1" spans="1:10">
+      <c r="A200" s="5"/>
       <c r="B200" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="10">
-        <v>33</v>
-      </c>
-      <c r="D200" s="10">
-        <v>4</v>
-      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
@@ -4712,15 +4056,13 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" ht="15" customHeight="1" spans="1:10">
-      <c r="A201" s="5">
-        <v>44809</v>
-      </c>
+    <row r="201" customHeight="1" spans="1:10">
+      <c r="A201" s="5"/>
       <c r="B201" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
@@ -4728,88 +4070,64 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" ht="15" customHeight="1" spans="1:10">
-      <c r="A202" s="5">
-        <v>44810</v>
-      </c>
+    <row r="202" customHeight="1" spans="1:10">
+      <c r="A202" s="5"/>
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
-      <c r="E202" s="10">
-        <v>577</v>
-      </c>
-      <c r="F202" s="10">
-        <v>652</v>
-      </c>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" ht="15" customHeight="1" spans="1:10">
-      <c r="A203" s="5">
-        <v>44810</v>
-      </c>
+    <row r="203" customHeight="1" spans="1:10">
+      <c r="A203" s="5"/>
       <c r="B203" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
-      <c r="E203" s="10">
-        <v>5</v>
-      </c>
-      <c r="F203" s="10">
-        <v>10</v>
-      </c>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" ht="15" customHeight="1" spans="1:10">
-      <c r="A204" s="5">
-        <v>44810</v>
-      </c>
+    <row r="204" customHeight="1" spans="1:10">
+      <c r="A204" s="5"/>
       <c r="B204" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
-      <c r="E204" s="10">
-        <v>63</v>
-      </c>
-      <c r="F204" s="10">
-        <v>60</v>
-      </c>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" ht="15" customHeight="1" spans="1:10">
-      <c r="A205" s="5">
-        <v>44810</v>
-      </c>
+    <row r="205" customHeight="1" spans="1:10">
+      <c r="A205" s="5"/>
       <c r="B205" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10">
-        <v>1</v>
-      </c>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" ht="15" customHeight="1" spans="1:10">
-      <c r="A206" s="5">
-        <v>44811</v>
-      </c>
+    <row r="206" customHeight="1" spans="1:10">
+      <c r="A206" s="5"/>
       <c r="B206" s="9" t="s">
         <v>2</v>
       </c>
@@ -4817,19 +4135,13 @@
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="10">
-        <v>667</v>
-      </c>
-      <c r="H206" s="10">
-        <v>588</v>
-      </c>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" ht="15" customHeight="1" spans="1:10">
-      <c r="A207" s="5">
-        <v>44811</v>
-      </c>
+    <row r="207" customHeight="1" spans="1:10">
+      <c r="A207" s="5"/>
       <c r="B207" s="9" t="s">
         <v>3</v>
       </c>
@@ -4837,19 +4149,13 @@
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
-      <c r="G207" s="10">
-        <v>11</v>
-      </c>
-      <c r="H207" s="10">
-        <v>8</v>
-      </c>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
     </row>
-    <row r="208" ht="15" customHeight="1" spans="1:10">
-      <c r="A208" s="5">
-        <v>44811</v>
-      </c>
+    <row r="208" customHeight="1" spans="1:10">
+      <c r="A208" s="5"/>
       <c r="B208" s="9" t="s">
         <v>4</v>
       </c>
@@ -4857,19 +4163,13 @@
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
-      <c r="G208" s="10">
-        <v>31</v>
-      </c>
-      <c r="H208" s="10">
-        <v>73</v>
-      </c>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" ht="15" customHeight="1" spans="1:10">
-      <c r="A209" s="5">
-        <v>44811</v>
-      </c>
+    <row r="209" customHeight="1" spans="1:10">
+      <c r="A209" s="5"/>
       <c r="B209" s="9" t="s">
         <v>5</v>
       </c>
@@ -4877,15 +4177,13 @@
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" ht="15" customHeight="1" spans="1:10">
-      <c r="A210" s="5">
-        <v>44812</v>
-      </c>
+    <row r="210" customHeight="1" spans="1:10">
+      <c r="A210" s="5"/>
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -4895,17 +4193,11 @@
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
-      <c r="I210" s="10">
-        <v>713</v>
-      </c>
-      <c r="J210" s="10">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1" spans="1:10">
-      <c r="A211" s="5">
-        <v>44812</v>
-      </c>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:10">
+      <c r="A211" s="5"/>
       <c r="B211" s="9" t="s">
         <v>3</v>
       </c>
@@ -4915,17 +4207,11 @@
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
-      <c r="I211" s="10">
-        <v>21</v>
-      </c>
-      <c r="J211" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1" spans="1:10">
-      <c r="A212" s="5">
-        <v>44812</v>
-      </c>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:10">
+      <c r="A212" s="5"/>
       <c r="B212" s="9" t="s">
         <v>4</v>
       </c>
@@ -4935,17 +4221,11 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
-      <c r="I212" s="10">
-        <v>41</v>
-      </c>
-      <c r="J212" s="10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1" spans="1:10">
-      <c r="A213" s="5">
-        <v>44812</v>
-      </c>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:10">
+      <c r="A213" s="5"/>
       <c r="B213" s="9" t="s">
         <v>5</v>
       </c>
@@ -4955,13 +4235,11 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-    </row>
-    <row r="214" ht="15" customHeight="1" spans="1:10">
-      <c r="A214" s="5">
-        <v>44813</v>
-      </c>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:10">
+      <c r="A214" s="5"/>
       <c r="B214" s="9" t="s">
         <v>2</v>
       </c>
@@ -4974,10 +4252,8 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" ht="15" customHeight="1" spans="1:10">
-      <c r="A215" s="5">
-        <v>44813</v>
-      </c>
+    <row r="215" customHeight="1" spans="1:10">
+      <c r="A215" s="5"/>
       <c r="B215" s="9" t="s">
         <v>3</v>
       </c>
@@ -4990,10 +4266,8 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" ht="15" customHeight="1" spans="1:10">
-      <c r="A216" s="5">
-        <v>44813</v>
-      </c>
+    <row r="216" customHeight="1" spans="1:10">
+      <c r="A216" s="5"/>
       <c r="B216" s="9" t="s">
         <v>4</v>
       </c>
@@ -5006,10 +4280,8 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" ht="15" customHeight="1" spans="1:10">
-      <c r="A217" s="5">
-        <v>44813</v>
-      </c>
+    <row r="217" customHeight="1" spans="1:10">
+      <c r="A217" s="5"/>
       <c r="B217" s="9" t="s">
         <v>5</v>
       </c>
@@ -5022,10 +4294,8 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" ht="15" customHeight="1" spans="1:10">
-      <c r="A218" s="5">
-        <v>44814</v>
-      </c>
+    <row r="218" customHeight="1" spans="1:10">
+      <c r="A218" s="5"/>
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -5038,10 +4308,8 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" ht="15" customHeight="1" spans="1:10">
-      <c r="A219" s="5">
-        <v>44814</v>
-      </c>
+    <row r="219" customHeight="1" spans="1:10">
+      <c r="A219" s="5"/>
       <c r="B219" s="9" t="s">
         <v>3</v>
       </c>
@@ -5054,10 +4322,8 @@
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" ht="15" customHeight="1" spans="1:10">
-      <c r="A220" s="5">
-        <v>44814</v>
-      </c>
+    <row r="220" customHeight="1" spans="1:10">
+      <c r="A220" s="5"/>
       <c r="B220" s="9" t="s">
         <v>4</v>
       </c>
@@ -5070,10 +4336,8 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" ht="15" customHeight="1" spans="1:10">
-      <c r="A221" s="5">
-        <v>44814</v>
-      </c>
+    <row r="221" customHeight="1" spans="1:10">
+      <c r="A221" s="5"/>
       <c r="B221" s="9" t="s">
         <v>5</v>
       </c>
@@ -5086,10 +4350,8 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" ht="15" customHeight="1" spans="1:10">
-      <c r="A222" s="5">
-        <v>44815</v>
-      </c>
+    <row r="222" customHeight="1" spans="1:10">
+      <c r="A222" s="5"/>
       <c r="B222" s="9" t="s">
         <v>2</v>
       </c>
@@ -5102,10 +4364,8 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" ht="15" customHeight="1" spans="1:10">
-      <c r="A223" s="5">
-        <v>44815</v>
-      </c>
+    <row r="223" customHeight="1" spans="1:10">
+      <c r="A223" s="5"/>
       <c r="B223" s="9" t="s">
         <v>3</v>
       </c>
@@ -5118,10 +4378,8 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" ht="15" customHeight="1" spans="1:10">
-      <c r="A224" s="5">
-        <v>44815</v>
-      </c>
+    <row r="224" customHeight="1" spans="1:10">
+      <c r="A224" s="5"/>
       <c r="B224" s="9" t="s">
         <v>4</v>
       </c>
@@ -5134,10 +4392,8 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" ht="15" customHeight="1" spans="1:10">
-      <c r="A225" s="5">
-        <v>44815</v>
-      </c>
+    <row r="225" customHeight="1" spans="1:10">
+      <c r="A225" s="5"/>
       <c r="B225" s="9" t="s">
         <v>5</v>
       </c>
@@ -5150,19 +4406,13 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" ht="15" customHeight="1" spans="1:10">
-      <c r="A226" s="5">
-        <v>44816</v>
-      </c>
+    <row r="226" customHeight="1" spans="1:10">
+      <c r="A226" s="5"/>
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C226" s="10">
-        <v>483</v>
-      </c>
-      <c r="D226" s="10">
-        <v>512</v>
-      </c>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -5170,19 +4420,13 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" ht="15" customHeight="1" spans="1:10">
-      <c r="A227" s="5">
-        <v>44816</v>
-      </c>
+    <row r="227" customHeight="1" spans="1:10">
+      <c r="A227" s="5"/>
       <c r="B227" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C227" s="10">
-        <v>25</v>
-      </c>
-      <c r="D227" s="10">
-        <v>33</v>
-      </c>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
@@ -5190,19 +4434,13 @@
       <c r="I227" s="9"/>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" ht="15" customHeight="1" spans="1:10">
-      <c r="A228" s="5">
-        <v>44816</v>
-      </c>
+    <row r="228" customHeight="1" spans="1:10">
+      <c r="A228" s="5"/>
       <c r="B228" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="10">
-        <v>22</v>
-      </c>
-      <c r="D228" s="10">
-        <v>49</v>
-      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
@@ -5210,15 +4448,13 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" ht="15" customHeight="1" spans="1:10">
-      <c r="A229" s="5">
-        <v>44816</v>
-      </c>
+    <row r="229" customHeight="1" spans="1:10">
+      <c r="A229" s="5"/>
       <c r="B229" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
@@ -5226,88 +4462,64 @@
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" ht="15" customHeight="1" spans="1:10">
-      <c r="A230" s="5">
-        <v>44817</v>
-      </c>
+    <row r="230" customHeight="1" spans="1:10">
+      <c r="A230" s="5"/>
       <c r="B230" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
-      <c r="E230" s="10">
-        <v>400</v>
-      </c>
-      <c r="F230" s="10">
-        <v>377</v>
-      </c>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" ht="15" customHeight="1" spans="1:10">
-      <c r="A231" s="5">
-        <v>44817</v>
-      </c>
+    <row r="231" customHeight="1" spans="1:10">
+      <c r="A231" s="5"/>
       <c r="B231" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
-      <c r="E231" s="10">
-        <v>25</v>
-      </c>
-      <c r="F231" s="10">
-        <v>13</v>
-      </c>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" ht="15" customHeight="1" spans="1:10">
-      <c r="A232" s="5">
-        <v>44817</v>
-      </c>
+    <row r="232" customHeight="1" spans="1:10">
+      <c r="A232" s="5"/>
       <c r="B232" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
-      <c r="E232" s="10">
-        <v>53</v>
-      </c>
-      <c r="F232" s="10">
-        <v>51</v>
-      </c>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" ht="15" customHeight="1" spans="1:10">
-      <c r="A233" s="5">
-        <v>44817</v>
-      </c>
+    <row r="233" customHeight="1" spans="1:10">
+      <c r="A233" s="5"/>
       <c r="B233" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10">
-        <v>1</v>
-      </c>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" ht="15" customHeight="1" spans="1:10">
-      <c r="A234" s="5">
-        <v>44818</v>
-      </c>
+    <row r="234" customHeight="1" spans="1:10">
+      <c r="A234" s="5"/>
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -5315,19 +4527,13 @@
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
-      <c r="G234" s="10">
-        <v>367</v>
-      </c>
-      <c r="H234" s="10">
-        <v>356</v>
-      </c>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" ht="15" customHeight="1" spans="1:10">
-      <c r="A235" s="5">
-        <v>44818</v>
-      </c>
+    <row r="235" customHeight="1" spans="1:10">
+      <c r="A235" s="5"/>
       <c r="B235" s="9" t="s">
         <v>3</v>
       </c>
@@ -5335,19 +4541,13 @@
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
-      <c r="G235" s="10">
-        <v>26</v>
-      </c>
-      <c r="H235" s="10">
-        <v>13</v>
-      </c>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" ht="15" customHeight="1" spans="1:10">
-      <c r="A236" s="5">
-        <v>44818</v>
-      </c>
+    <row r="236" customHeight="1" spans="1:10">
+      <c r="A236" s="5"/>
       <c r="B236" s="9" t="s">
         <v>4</v>
       </c>
@@ -5355,19 +4555,13 @@
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
-      <c r="G236" s="10">
-        <v>40</v>
-      </c>
-      <c r="H236" s="10">
-        <v>62</v>
-      </c>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" ht="15" customHeight="1" spans="1:10">
-      <c r="A237" s="5">
-        <v>44818</v>
-      </c>
+    <row r="237" customHeight="1" spans="1:10">
+      <c r="A237" s="5"/>
       <c r="B237" s="9" t="s">
         <v>5</v>
       </c>
@@ -5375,15 +4569,13 @@
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" ht="15" customHeight="1" spans="1:10">
-      <c r="A238" s="5">
-        <v>44819</v>
-      </c>
+    <row r="238" customHeight="1" spans="1:10">
+      <c r="A238" s="5"/>
       <c r="B238" s="9" t="s">
         <v>2</v>
       </c>
@@ -5396,10 +4588,8 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" ht="15" customHeight="1" spans="1:10">
-      <c r="A239" s="5">
-        <v>44819</v>
-      </c>
+    <row r="239" customHeight="1" spans="1:10">
+      <c r="A239" s="5"/>
       <c r="B239" s="9" t="s">
         <v>3</v>
       </c>
@@ -5412,10 +4602,8 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" ht="15" customHeight="1" spans="1:10">
-      <c r="A240" s="5">
-        <v>44819</v>
-      </c>
+    <row r="240" customHeight="1" spans="1:10">
+      <c r="A240" s="5"/>
       <c r="B240" s="9" t="s">
         <v>4</v>
       </c>
@@ -5428,10 +4616,8 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" ht="15" customHeight="1" spans="1:10">
-      <c r="A241" s="5">
-        <v>44819</v>
-      </c>
+    <row r="241" customHeight="1" spans="1:10">
+      <c r="A241" s="5"/>
       <c r="B241" s="9" t="s">
         <v>5</v>
       </c>
@@ -5444,10 +4630,8 @@
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" ht="15" customHeight="1" spans="1:10">
-      <c r="A242" s="5">
-        <v>44820</v>
-      </c>
+    <row r="242" customHeight="1" spans="1:10">
+      <c r="A242" s="5"/>
       <c r="B242" s="9" t="s">
         <v>2</v>
       </c>
@@ -5460,10 +4644,8 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" ht="15" customHeight="1" spans="1:10">
-      <c r="A243" s="5">
-        <v>44820</v>
-      </c>
+    <row r="243" customHeight="1" spans="1:10">
+      <c r="A243" s="5"/>
       <c r="B243" s="9" t="s">
         <v>3</v>
       </c>
@@ -5476,10 +4658,8 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" ht="15" customHeight="1" spans="1:10">
-      <c r="A244" s="5">
-        <v>44820</v>
-      </c>
+    <row r="244" customHeight="1" spans="1:10">
+      <c r="A244" s="5"/>
       <c r="B244" s="9" t="s">
         <v>4</v>
       </c>
@@ -5492,10 +4672,8 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" ht="15" customHeight="1" spans="1:10">
-      <c r="A245" s="5">
-        <v>44820</v>
-      </c>
+    <row r="245" customHeight="1" spans="1:10">
+      <c r="A245" s="5"/>
       <c r="B245" s="9" t="s">
         <v>5</v>
       </c>
@@ -5508,10 +4686,8 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" ht="15" customHeight="1" spans="1:10">
-      <c r="A246" s="5">
-        <v>44821</v>
-      </c>
+    <row r="246" customHeight="1" spans="1:10">
+      <c r="A246" s="5"/>
       <c r="B246" s="9" t="s">
         <v>2</v>
       </c>
@@ -5524,10 +4700,8 @@
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" ht="15" customHeight="1" spans="1:10">
-      <c r="A247" s="5">
-        <v>44821</v>
-      </c>
+    <row r="247" customHeight="1" spans="1:10">
+      <c r="A247" s="5"/>
       <c r="B247" s="9" t="s">
         <v>3</v>
       </c>
@@ -5540,10 +4714,8 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" ht="15" customHeight="1" spans="1:10">
-      <c r="A248" s="5">
-        <v>44821</v>
-      </c>
+    <row r="248" customHeight="1" spans="1:10">
+      <c r="A248" s="5"/>
       <c r="B248" s="9" t="s">
         <v>4</v>
       </c>
@@ -5556,10 +4728,8 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" ht="15" customHeight="1" spans="1:10">
-      <c r="A249" s="5">
-        <v>44821</v>
-      </c>
+    <row r="249" customHeight="1" spans="1:10">
+      <c r="A249" s="5"/>
       <c r="B249" s="9" t="s">
         <v>5</v>
       </c>
@@ -5572,10 +4742,8 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" ht="15" customHeight="1" spans="1:10">
-      <c r="A250" s="5">
-        <v>44822</v>
-      </c>
+    <row r="250" customHeight="1" spans="1:10">
+      <c r="A250" s="5"/>
       <c r="B250" s="9" t="s">
         <v>2</v>
       </c>
@@ -5588,10 +4756,8 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" ht="15" customHeight="1" spans="1:10">
-      <c r="A251" s="5">
-        <v>44822</v>
-      </c>
+    <row r="251" customHeight="1" spans="1:10">
+      <c r="A251" s="5"/>
       <c r="B251" s="9" t="s">
         <v>3</v>
       </c>
@@ -5604,10 +4770,8 @@
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
     </row>
-    <row r="252" ht="15" customHeight="1" spans="1:10">
-      <c r="A252" s="5">
-        <v>44822</v>
-      </c>
+    <row r="252" customHeight="1" spans="1:10">
+      <c r="A252" s="5"/>
       <c r="B252" s="9" t="s">
         <v>4</v>
       </c>
@@ -5620,10 +4784,8 @@
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
     </row>
-    <row r="253" ht="15" customHeight="1" spans="1:10">
-      <c r="A253" s="5">
-        <v>44822</v>
-      </c>
+    <row r="253" customHeight="1" spans="1:10">
+      <c r="A253" s="5"/>
       <c r="B253" s="9" t="s">
         <v>5</v>
       </c>
@@ -5636,10 +4798,8 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" ht="15" customHeight="1" spans="1:10">
-      <c r="A254" s="5">
-        <v>44823</v>
-      </c>
+    <row r="254" customHeight="1" spans="1:10">
+      <c r="A254" s="5"/>
       <c r="B254" s="9" t="s">
         <v>2</v>
       </c>
@@ -5652,10 +4812,8 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" ht="15" customHeight="1" spans="1:10">
-      <c r="A255" s="5">
-        <v>44823</v>
-      </c>
+    <row r="255" customHeight="1" spans="1:10">
+      <c r="A255" s="5"/>
       <c r="B255" s="9" t="s">
         <v>3</v>
       </c>
@@ -5668,10 +4826,8 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" ht="15" customHeight="1" spans="1:10">
-      <c r="A256" s="5">
-        <v>44823</v>
-      </c>
+    <row r="256" customHeight="1" spans="1:10">
+      <c r="A256" s="5"/>
       <c r="B256" s="9" t="s">
         <v>4</v>
       </c>
@@ -5684,10 +4840,8 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" ht="15" customHeight="1" spans="1:10">
-      <c r="A257" s="5">
-        <v>44823</v>
-      </c>
+    <row r="257" customHeight="1" spans="1:10">
+      <c r="A257" s="5"/>
       <c r="B257" s="9" t="s">
         <v>5</v>
       </c>
@@ -5700,10 +4854,8 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" ht="15" customHeight="1" spans="1:10">
-      <c r="A258" s="5">
-        <v>44824</v>
-      </c>
+    <row r="258" customHeight="1" spans="1:10">
+      <c r="A258" s="5"/>
       <c r="B258" s="9" t="s">
         <v>2</v>
       </c>
@@ -5716,10 +4868,8 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" ht="15" customHeight="1" spans="1:10">
-      <c r="A259" s="5">
-        <v>44824</v>
-      </c>
+    <row r="259" customHeight="1" spans="1:10">
+      <c r="A259" s="5"/>
       <c r="B259" s="9" t="s">
         <v>3</v>
       </c>
@@ -5732,10 +4882,8 @@
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
     </row>
-    <row r="260" ht="15" customHeight="1" spans="1:10">
-      <c r="A260" s="5">
-        <v>44824</v>
-      </c>
+    <row r="260" customHeight="1" spans="1:10">
+      <c r="A260" s="5"/>
       <c r="B260" s="9" t="s">
         <v>4</v>
       </c>
@@ -5748,10 +4896,8 @@
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
     </row>
-    <row r="261" ht="15" customHeight="1" spans="1:10">
-      <c r="A261" s="5">
-        <v>44824</v>
-      </c>
+    <row r="261" customHeight="1" spans="1:10">
+      <c r="A261" s="5"/>
       <c r="B261" s="9" t="s">
         <v>5</v>
       </c>
@@ -5764,10 +4910,8 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" ht="15" customHeight="1" spans="1:10">
-      <c r="A262" s="5">
-        <v>44825</v>
-      </c>
+    <row r="262" customHeight="1" spans="1:10">
+      <c r="A262" s="5"/>
       <c r="B262" s="9" t="s">
         <v>2</v>
       </c>
@@ -5780,10 +4924,8 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" ht="15" customHeight="1" spans="1:10">
-      <c r="A263" s="5">
-        <v>44825</v>
-      </c>
+    <row r="263" customHeight="1" spans="1:10">
+      <c r="A263" s="5"/>
       <c r="B263" s="9" t="s">
         <v>3</v>
       </c>
@@ -5796,10 +4938,8 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" ht="15" customHeight="1" spans="1:10">
-      <c r="A264" s="5">
-        <v>44825</v>
-      </c>
+    <row r="264" customHeight="1" spans="1:10">
+      <c r="A264" s="5"/>
       <c r="B264" s="9" t="s">
         <v>4</v>
       </c>
@@ -5812,10 +4952,8 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" ht="15" customHeight="1" spans="1:10">
-      <c r="A265" s="5">
-        <v>44825</v>
-      </c>
+    <row r="265" customHeight="1" spans="1:10">
+      <c r="A265" s="5"/>
       <c r="B265" s="9" t="s">
         <v>5</v>
       </c>
@@ -5828,10 +4966,8 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" ht="15" customHeight="1" spans="1:10">
-      <c r="A266" s="5">
-        <v>44826</v>
-      </c>
+    <row r="266" customHeight="1" spans="1:10">
+      <c r="A266" s="5"/>
       <c r="B266" s="9" t="s">
         <v>2</v>
       </c>
@@ -5844,10 +4980,8 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" ht="15" customHeight="1" spans="1:10">
-      <c r="A267" s="5">
-        <v>44826</v>
-      </c>
+    <row r="267" customHeight="1" spans="1:10">
+      <c r="A267" s="5"/>
       <c r="B267" s="9" t="s">
         <v>3</v>
       </c>
@@ -5860,10 +4994,8 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" ht="15" customHeight="1" spans="1:10">
-      <c r="A268" s="5">
-        <v>44826</v>
-      </c>
+    <row r="268" customHeight="1" spans="1:10">
+      <c r="A268" s="5"/>
       <c r="B268" s="9" t="s">
         <v>4</v>
       </c>
@@ -5876,10 +5008,8 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" ht="15" customHeight="1" spans="1:10">
-      <c r="A269" s="5">
-        <v>44826</v>
-      </c>
+    <row r="269" customHeight="1" spans="1:10">
+      <c r="A269" s="5"/>
       <c r="B269" s="9" t="s">
         <v>5</v>
       </c>
@@ -5892,10 +5022,8 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" ht="15" customHeight="1" spans="1:10">
-      <c r="A270" s="5">
-        <v>44827</v>
-      </c>
+    <row r="270" customHeight="1" spans="1:10">
+      <c r="A270" s="5"/>
       <c r="B270" s="9" t="s">
         <v>2</v>
       </c>
@@ -5908,10 +5036,8 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" ht="15" customHeight="1" spans="1:10">
-      <c r="A271" s="5">
-        <v>44827</v>
-      </c>
+    <row r="271" customHeight="1" spans="1:10">
+      <c r="A271" s="5"/>
       <c r="B271" s="9" t="s">
         <v>3</v>
       </c>
@@ -5924,10 +5050,8 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" ht="15" customHeight="1" spans="1:10">
-      <c r="A272" s="5">
-        <v>44827</v>
-      </c>
+    <row r="272" customHeight="1" spans="1:10">
+      <c r="A272" s="5"/>
       <c r="B272" s="9" t="s">
         <v>4</v>
       </c>
@@ -5940,10 +5064,8 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" ht="15" customHeight="1" spans="1:10">
-      <c r="A273" s="5">
-        <v>44827</v>
-      </c>
+    <row r="273" customHeight="1" spans="1:10">
+      <c r="A273" s="5"/>
       <c r="B273" s="9" t="s">
         <v>5</v>
       </c>
@@ -5956,10 +5078,8 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" ht="15" customHeight="1" spans="1:10">
-      <c r="A274" s="5">
-        <v>44828</v>
-      </c>
+    <row r="274" customHeight="1" spans="1:10">
+      <c r="A274" s="5"/>
       <c r="B274" s="9" t="s">
         <v>2</v>
       </c>
@@ -5972,10 +5092,8 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" ht="15" customHeight="1" spans="1:10">
-      <c r="A275" s="5">
-        <v>44828</v>
-      </c>
+    <row r="275" customHeight="1" spans="1:10">
+      <c r="A275" s="5"/>
       <c r="B275" s="9" t="s">
         <v>3</v>
       </c>
@@ -5988,10 +5106,8 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" ht="15" customHeight="1" spans="1:10">
-      <c r="A276" s="5">
-        <v>44828</v>
-      </c>
+    <row r="276" customHeight="1" spans="1:10">
+      <c r="A276" s="5"/>
       <c r="B276" s="9" t="s">
         <v>4</v>
       </c>
@@ -6004,10 +5120,8 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" ht="15" customHeight="1" spans="1:10">
-      <c r="A277" s="5">
-        <v>44828</v>
-      </c>
+    <row r="277" customHeight="1" spans="1:10">
+      <c r="A277" s="5"/>
       <c r="B277" s="9" t="s">
         <v>5</v>
       </c>
@@ -6020,10 +5134,8 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" ht="15" customHeight="1" spans="1:10">
-      <c r="A278" s="5">
-        <v>44829</v>
-      </c>
+    <row r="278" customHeight="1" spans="1:10">
+      <c r="A278" s="5"/>
       <c r="B278" s="9" t="s">
         <v>2</v>
       </c>
@@ -6036,10 +5148,8 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" ht="15" customHeight="1" spans="1:10">
-      <c r="A279" s="5">
-        <v>44829</v>
-      </c>
+    <row r="279" customHeight="1" spans="1:10">
+      <c r="A279" s="5"/>
       <c r="B279" s="9" t="s">
         <v>3</v>
       </c>
@@ -6052,10 +5162,8 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" ht="15" customHeight="1" spans="1:10">
-      <c r="A280" s="5">
-        <v>44829</v>
-      </c>
+    <row r="280" customHeight="1" spans="1:10">
+      <c r="A280" s="5"/>
       <c r="B280" s="9" t="s">
         <v>4</v>
       </c>
@@ -6068,10 +5176,8 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" ht="15" customHeight="1" spans="1:10">
-      <c r="A281" s="5">
-        <v>44829</v>
-      </c>
+    <row r="281" customHeight="1" spans="1:10">
+      <c r="A281" s="5"/>
       <c r="B281" s="9" t="s">
         <v>5</v>
       </c>
@@ -6084,10 +5190,8 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" ht="15" customHeight="1" spans="1:10">
-      <c r="A282" s="5">
-        <v>44830</v>
-      </c>
+    <row r="282" customHeight="1" spans="1:10">
+      <c r="A282" s="5"/>
       <c r="B282" s="9" t="s">
         <v>2</v>
       </c>
@@ -6100,10 +5204,8 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" ht="15" customHeight="1" spans="1:10">
-      <c r="A283" s="5">
-        <v>44830</v>
-      </c>
+    <row r="283" customHeight="1" spans="1:10">
+      <c r="A283" s="5"/>
       <c r="B283" s="9" t="s">
         <v>3</v>
       </c>
@@ -6116,10 +5218,8 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" ht="15" customHeight="1" spans="1:10">
-      <c r="A284" s="5">
-        <v>44830</v>
-      </c>
+    <row r="284" customHeight="1" spans="1:10">
+      <c r="A284" s="5"/>
       <c r="B284" s="9" t="s">
         <v>4</v>
       </c>
@@ -6132,10 +5232,8 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" ht="15" customHeight="1" spans="1:10">
-      <c r="A285" s="5">
-        <v>44830</v>
-      </c>
+    <row r="285" customHeight="1" spans="1:10">
+      <c r="A285" s="5"/>
       <c r="B285" s="9" t="s">
         <v>5</v>
       </c>
@@ -6148,10 +5246,8 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" ht="15" customHeight="1" spans="1:10">
-      <c r="A286" s="5">
-        <v>44831</v>
-      </c>
+    <row r="286" customHeight="1" spans="1:10">
+      <c r="A286" s="5"/>
       <c r="B286" s="9" t="s">
         <v>2</v>
       </c>
@@ -6164,10 +5260,8 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" ht="15" customHeight="1" spans="1:10">
-      <c r="A287" s="5">
-        <v>44831</v>
-      </c>
+    <row r="287" customHeight="1" spans="1:10">
+      <c r="A287" s="5"/>
       <c r="B287" s="9" t="s">
         <v>3</v>
       </c>
@@ -6180,10 +5274,8 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" ht="15" customHeight="1" spans="1:10">
-      <c r="A288" s="5">
-        <v>44831</v>
-      </c>
+    <row r="288" customHeight="1" spans="1:10">
+      <c r="A288" s="5"/>
       <c r="B288" s="9" t="s">
         <v>4</v>
       </c>
@@ -6196,10 +5288,8 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" ht="15" customHeight="1" spans="1:10">
-      <c r="A289" s="5">
-        <v>44831</v>
-      </c>
+    <row r="289" customHeight="1" spans="1:10">
+      <c r="A289" s="5"/>
       <c r="B289" s="9" t="s">
         <v>5</v>
       </c>
@@ -6212,10 +5302,8 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" ht="15" customHeight="1" spans="1:10">
-      <c r="A290" s="5">
-        <v>44832</v>
-      </c>
+    <row r="290" customHeight="1" spans="1:10">
+      <c r="A290" s="5"/>
       <c r="B290" s="9" t="s">
         <v>2</v>
       </c>
@@ -6228,10 +5316,8 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" ht="15" customHeight="1" spans="1:10">
-      <c r="A291" s="5">
-        <v>44832</v>
-      </c>
+    <row r="291" customHeight="1" spans="1:10">
+      <c r="A291" s="5"/>
       <c r="B291" s="9" t="s">
         <v>3</v>
       </c>
@@ -6244,10 +5330,8 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" ht="15" customHeight="1" spans="1:10">
-      <c r="A292" s="5">
-        <v>44832</v>
-      </c>
+    <row r="292" customHeight="1" spans="1:10">
+      <c r="A292" s="5"/>
       <c r="B292" s="9" t="s">
         <v>4</v>
       </c>
@@ -6260,10 +5344,8 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" ht="15" customHeight="1" spans="1:10">
-      <c r="A293" s="5">
-        <v>44832</v>
-      </c>
+    <row r="293" customHeight="1" spans="1:10">
+      <c r="A293" s="5"/>
       <c r="B293" s="9" t="s">
         <v>5</v>
       </c>
@@ -6277,372 +5359,282 @@
       <c r="J293" s="9"/>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="5">
-        <v>44833</v>
-      </c>
+      <c r="A294" s="5"/>
       <c r="B294" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C294" s="13"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="13"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
-      <c r="I294" s="15"/>
-      <c r="J294" s="15"/>
+      <c r="C294" s="15"/>
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="5">
-        <v>44833</v>
-      </c>
+      <c r="A295" s="5"/>
       <c r="B295" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
-      <c r="J295" s="15"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="18"/>
+      <c r="I295" s="18"/>
+      <c r="J295" s="10"/>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="5">
-        <v>44833</v>
-      </c>
+      <c r="A296" s="5"/>
       <c r="B296" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C296" s="13"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
-      <c r="I296" s="15"/>
-      <c r="J296" s="15"/>
+      <c r="C296" s="15"/>
+      <c r="D296" s="15"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="10"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="5">
-        <v>44833</v>
-      </c>
+      <c r="A297" s="5"/>
       <c r="B297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
-      <c r="I297" s="15"/>
-      <c r="J297" s="15"/>
+      <c r="C297" s="15"/>
+      <c r="D297" s="15"/>
+      <c r="E297" s="15"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="10"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="5">
-        <v>44834</v>
-      </c>
+      <c r="A298" s="5"/>
       <c r="B298" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
-      <c r="H298" s="13"/>
-      <c r="I298" s="15"/>
-      <c r="J298" s="15"/>
+      <c r="C298" s="10"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="15"/>
+      <c r="G298" s="15"/>
+      <c r="H298" s="15"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="10"/>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="5">
-        <v>44834</v>
-      </c>
+      <c r="A299" s="5"/>
       <c r="B299" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C299" s="15"/>
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
-      <c r="I299" s="15"/>
-      <c r="J299" s="15"/>
+      <c r="C299" s="10"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="15"/>
+      <c r="H299" s="15"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10"/>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="5">
-        <v>44834</v>
-      </c>
+      <c r="A300" s="5"/>
       <c r="B300" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="13"/>
-      <c r="H300" s="13"/>
-      <c r="I300" s="15"/>
-      <c r="J300" s="15"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="15"/>
+      <c r="G300" s="15"/>
+      <c r="H300" s="15"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="10"/>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="5">
-        <v>44834</v>
-      </c>
+      <c r="A301" s="5"/>
       <c r="B301" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C301" s="15"/>
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="13"/>
-      <c r="H301" s="13"/>
-      <c r="I301" s="15"/>
-      <c r="J301" s="15"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="15"/>
+      <c r="G301" s="15"/>
+      <c r="H301" s="15"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="10"/>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="5">
-        <v>44835</v>
-      </c>
+      <c r="A302" s="5"/>
       <c r="B302" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C302" s="7">
-        <v>318</v>
-      </c>
-      <c r="D302" s="7">
-        <v>334</v>
-      </c>
-      <c r="E302" s="7">
-        <v>303</v>
-      </c>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
-      <c r="I302" s="13"/>
-      <c r="J302" s="13"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="15"/>
+      <c r="J302" s="15"/>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="5">
-        <v>44835</v>
-      </c>
+      <c r="A303" s="5"/>
       <c r="B303" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C303" s="7">
-        <v>11</v>
-      </c>
-      <c r="D303" s="7">
-        <v>9</v>
-      </c>
-      <c r="E303" s="7">
-        <v>12</v>
-      </c>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="13"/>
-      <c r="J303" s="13"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="10"/>
+      <c r="H303" s="10"/>
+      <c r="I303" s="15"/>
+      <c r="J303" s="15"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="5">
-        <v>44835</v>
-      </c>
+      <c r="A304" s="5"/>
       <c r="B304" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="7">
-        <v>54</v>
-      </c>
-      <c r="D304" s="7">
-        <v>28</v>
-      </c>
-      <c r="E304" s="7">
-        <v>60</v>
-      </c>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
-      <c r="I304" s="13"/>
-      <c r="J304" s="13"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
+      <c r="H304" s="10"/>
+      <c r="I304" s="15"/>
+      <c r="J304" s="15"/>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="5">
-        <v>44835</v>
-      </c>
+      <c r="A305" s="5"/>
       <c r="B305" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C305" s="7">
-        <v>1</v>
-      </c>
+      <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
-      <c r="I305" s="13"/>
-      <c r="J305" s="13"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
+      <c r="H305" s="10"/>
+      <c r="I305" s="15"/>
+      <c r="J305" s="15"/>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="5">
-        <v>44836</v>
-      </c>
+      <c r="A306" s="5"/>
       <c r="B306" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C306" s="15"/>
-      <c r="D306" s="15"/>
-      <c r="E306" s="15"/>
-      <c r="F306" s="7">
-        <v>284</v>
-      </c>
-      <c r="G306" s="7">
-        <v>275</v>
-      </c>
-      <c r="H306" s="7">
-        <v>248</v>
-      </c>
-      <c r="I306" s="15"/>
-      <c r="J306" s="15"/>
+      <c r="C306" s="10"/>
+      <c r="D306" s="10"/>
+      <c r="E306" s="10"/>
+      <c r="F306" s="7"/>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="10"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="5">
-        <v>44836</v>
-      </c>
+      <c r="A307" s="5"/>
       <c r="B307" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="7">
-        <v>20</v>
-      </c>
-      <c r="G307" s="7">
-        <v>20</v>
-      </c>
-      <c r="H307" s="7">
-        <v>9</v>
-      </c>
-      <c r="I307" s="15"/>
-      <c r="J307" s="15"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="7"/>
+      <c r="H307" s="7"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="5">
-        <v>44836</v>
-      </c>
+      <c r="A308" s="5"/>
       <c r="B308" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C308" s="15"/>
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="7">
-        <v>48</v>
-      </c>
-      <c r="G308" s="7">
-        <v>33</v>
-      </c>
-      <c r="H308" s="7">
-        <v>29</v>
-      </c>
-      <c r="I308" s="15"/>
-      <c r="J308" s="15"/>
+      <c r="C308" s="10"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="10"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="10"/>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="5">
-        <v>44836</v>
-      </c>
+      <c r="A309" s="5"/>
       <c r="B309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
+      <c r="C309" s="10"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
-      <c r="I309" s="15"/>
-      <c r="J309" s="15"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="10"/>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="5">
-        <v>44837</v>
-      </c>
+      <c r="A310" s="5"/>
       <c r="B310" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
-      <c r="I310" s="7">
-        <v>190</v>
-      </c>
-      <c r="J310" s="7">
-        <v>231</v>
-      </c>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10"/>
+      <c r="G310" s="10"/>
+      <c r="H310" s="10"/>
+      <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="5">
-        <v>44837</v>
-      </c>
+      <c r="A311" s="5"/>
       <c r="B311" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
-      <c r="I311" s="7">
-        <v>16</v>
-      </c>
-      <c r="J311" s="7">
-        <v>14</v>
-      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10"/>
+      <c r="H311" s="10"/>
+      <c r="I311" s="7"/>
+      <c r="J311" s="7"/>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="5">
-        <v>44837</v>
-      </c>
+      <c r="A312" s="5"/>
       <c r="B312" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C312" s="15"/>
-      <c r="D312" s="15"/>
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
-      <c r="I312" s="7">
-        <v>74</v>
-      </c>
-      <c r="J312" s="7">
-        <v>28</v>
-      </c>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="10"/>
+      <c r="F312" s="10"/>
+      <c r="G312" s="10"/>
+      <c r="H312" s="10"/>
+      <c r="I312" s="7"/>
+      <c r="J312" s="7"/>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="5">
-        <v>44837</v>
-      </c>
+      <c r="A313" s="5"/>
       <c r="B313" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
+      <c r="C313" s="10"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
+      <c r="H313" s="10"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
     </row>
@@ -6651,351 +5643,351 @@
       <c r="B314"/>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="16"/>
+      <c r="A315" s="17"/>
       <c r="B315"/>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="16"/>
+      <c r="A316" s="17"/>
       <c r="B316"/>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="16"/>
+      <c r="A317" s="17"/>
       <c r="B317"/>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="16"/>
+      <c r="A318" s="17"/>
       <c r="B318"/>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="16"/>
+      <c r="A319" s="17"/>
       <c r="B319"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="16"/>
+      <c r="A320" s="17"/>
       <c r="B320"/>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="16"/>
+      <c r="A321" s="17"/>
       <c r="B321"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="16"/>
+      <c r="A322" s="17"/>
       <c r="B322"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="16"/>
+      <c r="A323" s="17"/>
       <c r="B323"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="16"/>
+      <c r="A324" s="17"/>
       <c r="B324"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="16"/>
+      <c r="A325" s="17"/>
       <c r="B325"/>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="16"/>
+      <c r="A326" s="17"/>
       <c r="B326"/>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="16"/>
+      <c r="A327" s="17"/>
       <c r="B327"/>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="16"/>
+      <c r="A328" s="17"/>
       <c r="B328"/>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="16"/>
+      <c r="A329" s="17"/>
       <c r="B329"/>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="16"/>
+      <c r="A330" s="17"/>
       <c r="B330"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="16"/>
+      <c r="A331" s="17"/>
       <c r="B331"/>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="16"/>
+      <c r="A332" s="17"/>
       <c r="B332"/>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="16"/>
+      <c r="A333" s="17"/>
       <c r="B333"/>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="16"/>
+      <c r="A334" s="17"/>
       <c r="B334"/>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="16"/>
+      <c r="A335" s="17"/>
       <c r="B335"/>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="16"/>
+      <c r="A336" s="17"/>
       <c r="B336"/>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="16"/>
+      <c r="A337" s="17"/>
       <c r="B337"/>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="16"/>
+      <c r="A338" s="17"/>
       <c r="B338"/>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="16"/>
+      <c r="A339" s="17"/>
       <c r="B339"/>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="16"/>
+      <c r="A340" s="17"/>
       <c r="B340"/>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="16"/>
+      <c r="A341" s="17"/>
       <c r="B341"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="16"/>
+      <c r="A342" s="17"/>
       <c r="B342"/>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="16"/>
+      <c r="A343" s="17"/>
       <c r="B343"/>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="16"/>
+      <c r="A344" s="17"/>
       <c r="B344"/>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="16"/>
+      <c r="A345" s="17"/>
       <c r="B345"/>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="16"/>
+      <c r="A346" s="17"/>
       <c r="B346"/>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="16"/>
+      <c r="A347" s="17"/>
       <c r="B347"/>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="16"/>
+      <c r="A348" s="17"/>
       <c r="B348"/>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="16"/>
+      <c r="A349" s="17"/>
       <c r="B349"/>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="16"/>
+      <c r="A350" s="17"/>
       <c r="B350"/>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="16"/>
+      <c r="A351" s="17"/>
       <c r="B351"/>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="16"/>
+      <c r="A352" s="17"/>
       <c r="B352"/>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="16"/>
+      <c r="A353" s="17"/>
       <c r="B353"/>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="16"/>
+      <c r="A354" s="17"/>
       <c r="B354"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="16"/>
+      <c r="A355" s="17"/>
       <c r="B355"/>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="16"/>
+      <c r="A356" s="17"/>
       <c r="B356"/>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="16"/>
+      <c r="A357" s="17"/>
       <c r="B357"/>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="16"/>
+      <c r="A358" s="17"/>
       <c r="B358"/>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="16"/>
+      <c r="A359" s="17"/>
       <c r="B359"/>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="16"/>
+      <c r="A360" s="17"/>
       <c r="B360"/>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="16"/>
+      <c r="A361" s="17"/>
       <c r="B361"/>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="16"/>
+      <c r="A362" s="17"/>
       <c r="B362"/>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="16"/>
+      <c r="A363" s="17"/>
       <c r="B363"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="16"/>
+      <c r="A364" s="17"/>
       <c r="B364"/>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="16"/>
+      <c r="A365" s="17"/>
       <c r="B365"/>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="16"/>
+      <c r="A366" s="17"/>
       <c r="B366"/>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="16"/>
+      <c r="A367" s="17"/>
       <c r="B367"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="16"/>
+      <c r="A368" s="17"/>
       <c r="B368"/>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="16"/>
+      <c r="A369" s="17"/>
       <c r="B369"/>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="16"/>
+      <c r="A370" s="17"/>
       <c r="B370"/>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="16"/>
+      <c r="A371" s="17"/>
       <c r="B371"/>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="16"/>
+      <c r="A372" s="17"/>
       <c r="B372"/>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="16"/>
+      <c r="A373" s="17"/>
       <c r="B373"/>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="16"/>
+      <c r="A374" s="17"/>
       <c r="B374"/>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="16"/>
+      <c r="A375" s="17"/>
       <c r="B375"/>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="16"/>
+      <c r="A376" s="17"/>
       <c r="B376"/>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="16"/>
+      <c r="A377" s="17"/>
       <c r="B377"/>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="16"/>
+      <c r="A378" s="17"/>
       <c r="B378"/>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="16"/>
+      <c r="A379" s="17"/>
       <c r="B379"/>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="16"/>
+      <c r="A380" s="17"/>
       <c r="B380"/>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="16"/>
+      <c r="A381" s="17"/>
       <c r="B381"/>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="16"/>
+      <c r="A382" s="17"/>
       <c r="B382"/>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="16"/>
+      <c r="A383" s="17"/>
       <c r="B383"/>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="16"/>
+      <c r="A384" s="17"/>
       <c r="B384"/>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="16"/>
+      <c r="A385" s="17"/>
       <c r="B385"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="16"/>
+      <c r="A386" s="17"/>
       <c r="B386"/>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="16"/>
+      <c r="A387" s="17"/>
       <c r="B387"/>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="16"/>
+      <c r="A388" s="17"/>
       <c r="B388"/>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="16"/>
+      <c r="A389" s="17"/>
       <c r="B389"/>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="16"/>
+      <c r="A390" s="17"/>
       <c r="B390"/>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="16"/>
+      <c r="A391" s="17"/>
       <c r="B391"/>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="16"/>
+      <c r="A392" s="17"/>
       <c r="B392"/>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="16"/>
+      <c r="A393" s="17"/>
       <c r="B393"/>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="16"/>
+      <c r="A394" s="17"/>
       <c r="B394"/>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="16"/>
+      <c r="A395" s="17"/>
       <c r="B395"/>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="16"/>
+      <c r="A396" s="17"/>
       <c r="B396"/>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="16"/>
+      <c r="A397" s="17"/>
       <c r="B397"/>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="16"/>
+      <c r="A398" s="17"/>
       <c r="B398"/>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="16"/>
+      <c r="A399" s="17"/>
       <c r="B399"/>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="16"/>
+      <c r="A400" s="17"/>
       <c r="B400"/>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="16"/>
+      <c r="A401" s="17"/>
       <c r="B401"/>
     </row>
   </sheetData>
@@ -7014,7 +6006,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
